--- a/Algorithms/End sort/Endsort.xlsx
+++ b/Algorithms/End sort/Endsort.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DEEPBLUE2\Dropbox\Programming\_Small Projects\C\End sort\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DEEPBLUE2\Folders\GitHub Projects\misc-programs\Algorithms\End sort\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Example 1" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,9 @@
     <sheet name="Example 4 (23)" sheetId="7" r:id="rId5"/>
     <sheet name="Example 5 (23)" sheetId="8" r:id="rId6"/>
     <sheet name="Example 6 (23)" sheetId="9" r:id="rId7"/>
-    <sheet name="Corrrectness" sheetId="2" r:id="rId8"/>
-    <sheet name="Speed" sheetId="3" r:id="rId9"/>
+    <sheet name="Example 7 (11)" sheetId="10" r:id="rId8"/>
+    <sheet name="Corrrectness" sheetId="2" r:id="rId9"/>
+    <sheet name="Speed" sheetId="3" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="19">
   <si>
     <t>1 CYCLE</t>
   </si>
@@ -86,6 +87,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>SORTED AFTER 3 CYCLES</t>
   </si>
 </sst>
 </file>
@@ -447,9 +451,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="14" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="14" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFill="1"/>
@@ -464,6 +465,9 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="7" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="40% - Accent1" xfId="3" builtinId="31"/>
@@ -2602,6 +2606,153 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="F2" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+    </row>
+    <row r="3" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>524288</v>
+      </c>
+      <c r="D4">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="F4">
+        <v>524288</v>
+      </c>
+      <c r="H4">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <f t="shared" ref="B5:B11" si="0">B4/2</f>
+        <v>262144</v>
+      </c>
+      <c r="D5">
+        <v>0.224</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F11" si="1">F4/2</f>
+        <v>262144</v>
+      </c>
+      <c r="H5">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>131072</v>
+      </c>
+      <c r="D6">
+        <v>0.108</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>131072</v>
+      </c>
+      <c r="H6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>65536</v>
+      </c>
+      <c r="D7">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>65536</v>
+      </c>
+      <c r="H7">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>32768</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>32768</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>16384</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>16384</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>8192</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>4096</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>4096</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N43"/>
@@ -6616,10 +6767,10 @@
       <c r="A13" s="2">
         <v>-81</v>
       </c>
-      <c r="B13" s="33">
+      <c r="B13" s="32">
         <v>-79</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C13" s="32">
         <v>-80</v>
       </c>
       <c r="D13" s="2">
@@ -6679,10 +6830,10 @@
       <c r="V13" s="3">
         <v>-3</v>
       </c>
-      <c r="W13" s="34">
+      <c r="W13" s="33">
         <v>12</v>
       </c>
-      <c r="X13" s="34">
+      <c r="X13" s="33">
         <v>-1</v>
       </c>
       <c r="Y13" s="3">
@@ -6694,10 +6845,10 @@
       <c r="AA13" s="3">
         <v>31</v>
       </c>
-      <c r="AB13" s="34">
+      <c r="AB13" s="33">
         <v>48</v>
       </c>
-      <c r="AC13" s="34">
+      <c r="AC13" s="33">
         <v>42</v>
       </c>
       <c r="AD13" s="3">
@@ -6709,10 +6860,10 @@
       <c r="AF13" s="3">
         <v>54</v>
       </c>
-      <c r="AG13" s="34">
+      <c r="AG13" s="33">
         <v>60</v>
       </c>
-      <c r="AH13" s="34">
+      <c r="AH13" s="33">
         <v>59</v>
       </c>
       <c r="AI13" s="3">
@@ -7256,10 +7407,10 @@
       <c r="A20" s="2">
         <v>-81</v>
       </c>
-      <c r="B20" s="33">
+      <c r="B20" s="32">
         <v>-79</v>
       </c>
-      <c r="C20" s="33">
+      <c r="C20" s="32">
         <v>-80</v>
       </c>
       <c r="D20" s="2">
@@ -7319,10 +7470,10 @@
       <c r="V20" s="3">
         <v>-3</v>
       </c>
-      <c r="W20" s="34">
+      <c r="W20" s="33">
         <v>12</v>
       </c>
-      <c r="X20" s="34">
+      <c r="X20" s="33">
         <v>-1</v>
       </c>
       <c r="Y20" s="3">
@@ -7334,10 +7485,10 @@
       <c r="AA20" s="3">
         <v>31</v>
       </c>
-      <c r="AB20" s="34">
+      <c r="AB20" s="33">
         <v>48</v>
       </c>
-      <c r="AC20" s="34">
+      <c r="AC20" s="33">
         <v>42</v>
       </c>
       <c r="AD20" s="3">
@@ -7349,10 +7500,10 @@
       <c r="AF20" s="3">
         <v>54</v>
       </c>
-      <c r="AG20" s="34">
+      <c r="AG20" s="33">
         <v>60</v>
       </c>
-      <c r="AH20" s="34">
+      <c r="AH20" s="33">
         <v>59</v>
       </c>
       <c r="AI20" s="3">
@@ -9225,10 +9376,10 @@
       <c r="I1" s="2">
         <v>-51</v>
       </c>
-      <c r="J1" s="33">
+      <c r="J1" s="32">
         <v>-41</v>
       </c>
-      <c r="K1" s="33">
+      <c r="K1" s="32">
         <v>-47</v>
       </c>
       <c r="L1" s="2">
@@ -9521,10 +9672,10 @@
       <c r="I7" s="2">
         <v>-51</v>
       </c>
-      <c r="J7" s="33">
+      <c r="J7" s="32">
         <v>-41</v>
       </c>
-      <c r="K7" s="33">
+      <c r="K7" s="32">
         <v>-47</v>
       </c>
       <c r="L7" s="3">
@@ -9817,10 +9968,10 @@
       <c r="I15" s="2">
         <v>-51</v>
       </c>
-      <c r="J15" s="33">
+      <c r="J15" s="32">
         <v>-41</v>
       </c>
-      <c r="K15" s="33">
+      <c r="K15" s="32">
         <v>-47</v>
       </c>
       <c r="L15" s="3">
@@ -10113,10 +10264,10 @@
       <c r="I21" s="2">
         <v>-51</v>
       </c>
-      <c r="J21" s="33">
+      <c r="J21" s="32">
         <v>-41</v>
       </c>
-      <c r="K21" s="33">
+      <c r="K21" s="32">
         <v>-47</v>
       </c>
       <c r="L21" s="2">
@@ -10392,10 +10543,10 @@
       <c r="C29" s="2">
         <v>-51</v>
       </c>
-      <c r="D29" s="34">
+      <c r="D29" s="33">
         <v>-41</v>
       </c>
-      <c r="E29" s="34">
+      <c r="E29" s="33">
         <v>-47</v>
       </c>
       <c r="F29" s="3">
@@ -10411,10 +10562,10 @@
       <c r="J29" s="2">
         <v>-51</v>
       </c>
-      <c r="K29" s="34">
+      <c r="K29" s="33">
         <v>-41</v>
       </c>
-      <c r="L29" s="34">
+      <c r="L29" s="33">
         <v>-47</v>
       </c>
       <c r="M29" s="3">
@@ -10470,14 +10621,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="AF10" sqref="AF10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AJ6" sqref="AJ6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="23" width="4.85546875" customWidth="1"/>
-    <col min="24" max="24" width="2.7109375" style="38" customWidth="1"/>
+    <col min="24" max="24" width="2.7109375" style="37" customWidth="1"/>
     <col min="25" max="26" width="5" customWidth="1"/>
     <col min="27" max="47" width="4.85546875" customWidth="1"/>
     <col min="48" max="48" width="22.140625" bestFit="1" customWidth="1"/>
@@ -10553,13 +10704,13 @@
       <c r="W1" s="9">
         <v>8</v>
       </c>
-      <c r="Y1" s="42">
+      <c r="Y1" s="41">
         <v>33</v>
       </c>
-      <c r="Z1" s="42">
+      <c r="Z1" s="41">
         <v>60</v>
       </c>
-      <c r="AA1" s="42">
+      <c r="AA1" s="41">
         <v>-14</v>
       </c>
       <c r="AB1" s="6">
@@ -10568,13 +10719,13 @@
       <c r="AC1" s="6">
         <v>33</v>
       </c>
-      <c r="AD1" s="42">
+      <c r="AD1" s="41">
         <v>64</v>
       </c>
       <c r="AE1" s="6">
         <v>-63</v>
       </c>
-      <c r="AF1" s="42">
+      <c r="AF1" s="41">
         <v>4</v>
       </c>
       <c r="AG1" s="6">
@@ -10598,13 +10749,13 @@
       <c r="AM1" s="6">
         <v>43</v>
       </c>
-      <c r="AN1" s="42">
+      <c r="AN1" s="41">
         <v>-10</v>
       </c>
       <c r="AO1" s="6">
         <v>-61</v>
       </c>
-      <c r="AP1" s="42">
+      <c r="AP1" s="41">
         <v>61</v>
       </c>
       <c r="AQ1" s="6">
@@ -10613,13 +10764,13 @@
       <c r="AR1" s="6">
         <v>45</v>
       </c>
-      <c r="AS1" s="42">
+      <c r="AS1" s="41">
         <v>-20</v>
       </c>
-      <c r="AT1" s="42">
+      <c r="AT1" s="41">
         <v>48</v>
       </c>
-      <c r="AU1" s="42">
+      <c r="AU1" s="41">
         <v>8</v>
       </c>
       <c r="AV1" t="s">
@@ -10696,10 +10847,10 @@
       <c r="W2">
         <v>33</v>
       </c>
-      <c r="Y2" s="43">
+      <c r="Y2" s="42">
         <v>8</v>
       </c>
-      <c r="Z2" s="43">
+      <c r="Z2" s="42">
         <v>48</v>
       </c>
       <c r="AA2" s="2">
@@ -10708,16 +10859,16 @@
       <c r="AB2" s="2">
         <v>-40</v>
       </c>
-      <c r="AC2" s="43">
+      <c r="AC2" s="42">
         <v>33</v>
       </c>
-      <c r="AD2" s="43">
+      <c r="AD2" s="42">
         <v>61</v>
       </c>
-      <c r="AE2" s="43">
+      <c r="AE2" s="42">
         <v>-63</v>
       </c>
-      <c r="AF2" s="43">
+      <c r="AF2" s="42">
         <v>-10</v>
       </c>
       <c r="AG2" s="2">
@@ -10726,19 +10877,19 @@
       <c r="AH2" s="2">
         <v>0</v>
       </c>
-      <c r="AI2" s="43">
+      <c r="AI2" s="42">
         <v>24</v>
       </c>
-      <c r="AJ2" s="43">
+      <c r="AJ2" s="42">
         <v>-23</v>
       </c>
-      <c r="AK2" s="44">
+      <c r="AK2" s="43">
         <v>59</v>
       </c>
-      <c r="AL2" s="44">
+      <c r="AL2" s="43">
         <v>68</v>
       </c>
-      <c r="AM2" s="44">
+      <c r="AM2" s="43">
         <v>43</v>
       </c>
       <c r="AN2" s="3">
@@ -10756,13 +10907,13 @@
       <c r="AR2" s="3">
         <v>45</v>
       </c>
-      <c r="AS2" s="44">
+      <c r="AS2" s="43">
         <v>-14</v>
       </c>
-      <c r="AT2" s="44">
+      <c r="AT2" s="43">
         <v>60</v>
       </c>
-      <c r="AU2" s="44">
+      <c r="AU2" s="43">
         <v>33</v>
       </c>
     </row>
@@ -10833,7 +10984,7 @@
       <c r="Y3" s="2">
         <v>-23</v>
       </c>
-      <c r="Z3" s="43">
+      <c r="Z3" s="42">
         <v>24</v>
       </c>
       <c r="AA3" s="2">
@@ -10857,7 +11008,7 @@
       <c r="AG3" s="2">
         <v>32</v>
       </c>
-      <c r="AH3" s="43">
+      <c r="AH3" s="42">
         <v>0</v>
       </c>
       <c r="AI3" s="2">
@@ -10869,13 +11020,13 @@
       <c r="AK3" s="3">
         <v>33</v>
       </c>
-      <c r="AL3" s="44">
+      <c r="AL3" s="43">
         <v>60</v>
       </c>
       <c r="AM3" s="3">
         <v>-14</v>
       </c>
-      <c r="AN3" s="44">
+      <c r="AN3" s="43">
         <v>4</v>
       </c>
       <c r="AO3" s="3">
@@ -10884,13 +11035,13 @@
       <c r="AP3" s="3">
         <v>64</v>
       </c>
-      <c r="AQ3" s="44">
+      <c r="AQ3" s="43">
         <v>-46</v>
       </c>
       <c r="AR3" s="3">
         <v>45</v>
       </c>
-      <c r="AS3" s="44">
+      <c r="AS3" s="43">
         <v>43</v>
       </c>
       <c r="AT3" s="3">
@@ -10958,55 +11109,55 @@
       <c r="U4">
         <v>-14</v>
       </c>
-      <c r="Y4" s="46">
+      <c r="Y4" s="45">
         <v>-23</v>
       </c>
-      <c r="Z4" s="46">
+      <c r="Z4" s="45">
         <v>0</v>
       </c>
-      <c r="AA4" s="46">
+      <c r="AA4" s="45">
         <v>-20</v>
       </c>
-      <c r="AB4" s="46">
+      <c r="AB4" s="45">
         <v>-40</v>
       </c>
-      <c r="AC4" s="46">
+      <c r="AC4" s="45">
         <v>-10</v>
       </c>
-      <c r="AD4" s="46">
+      <c r="AD4" s="45">
         <v>-63</v>
       </c>
-      <c r="AE4" s="45">
+      <c r="AE4" s="44">
         <v>61</v>
       </c>
-      <c r="AF4" s="45">
+      <c r="AF4" s="44">
         <v>33</v>
       </c>
       <c r="AG4" s="4">
         <v>32</v>
       </c>
-      <c r="AH4" s="45">
+      <c r="AH4" s="44">
         <v>24</v>
       </c>
-      <c r="AI4" s="45">
+      <c r="AI4" s="44">
         <v>48</v>
       </c>
-      <c r="AJ4" s="46">
+      <c r="AJ4" s="45">
         <v>8</v>
       </c>
-      <c r="AK4" s="46">
+      <c r="AK4" s="45">
         <v>33</v>
       </c>
-      <c r="AL4" s="46">
+      <c r="AL4" s="45">
         <v>43</v>
       </c>
-      <c r="AM4" s="46">
+      <c r="AM4" s="45">
         <v>-14</v>
       </c>
-      <c r="AN4" s="46">
+      <c r="AN4" s="45">
         <v>-46</v>
       </c>
-      <c r="AO4" s="46">
+      <c r="AO4" s="45">
         <v>-61</v>
       </c>
       <c r="AP4" s="4">
@@ -11083,13 +11234,13 @@
       <c r="Y5" s="1">
         <v>-63</v>
       </c>
-      <c r="Z5" s="46">
+      <c r="Z5" s="45">
         <v>-10</v>
       </c>
       <c r="AA5" s="1">
         <v>-40</v>
       </c>
-      <c r="AB5" s="46">
+      <c r="AB5" s="45">
         <v>-20</v>
       </c>
       <c r="AC5" s="1">
@@ -11098,7 +11249,7 @@
       <c r="AD5" s="4">
         <v>-23</v>
       </c>
-      <c r="AE5" s="45">
+      <c r="AE5" s="44">
         <v>48</v>
       </c>
       <c r="AF5" s="4">
@@ -11107,7 +11258,7 @@
       <c r="AG5" s="4">
         <v>32</v>
       </c>
-      <c r="AH5" s="45">
+      <c r="AH5" s="44">
         <v>33</v>
       </c>
       <c r="AI5" s="4">
@@ -11122,22 +11273,22 @@
       <c r="AL5" s="2">
         <v>-14</v>
       </c>
-      <c r="AM5" s="44">
+      <c r="AM5" s="43">
         <v>43</v>
       </c>
       <c r="AN5" s="3">
         <v>33</v>
       </c>
-      <c r="AO5" s="44">
+      <c r="AO5" s="43">
         <v>8</v>
       </c>
-      <c r="AP5" s="43">
+      <c r="AP5" s="42">
         <v>59</v>
       </c>
       <c r="AQ5" s="2">
         <v>4</v>
       </c>
-      <c r="AR5" s="43">
+      <c r="AR5" s="42">
         <v>45</v>
       </c>
       <c r="AS5" s="3">
@@ -11247,10 +11398,10 @@
       <c r="AO6" s="4">
         <v>43</v>
       </c>
-      <c r="AP6" s="46">
+      <c r="AP6" s="45">
         <v>45</v>
       </c>
-      <c r="AQ6" s="46">
+      <c r="AQ6" s="45">
         <v>4</v>
       </c>
       <c r="AR6" s="4">
@@ -11369,10 +11520,10 @@
       <c r="AS7" s="1">
         <v>60</v>
       </c>
-      <c r="AT7" s="45">
+      <c r="AT7" s="44">
         <v>68</v>
       </c>
-      <c r="AU7" s="45">
+      <c r="AU7" s="44">
         <v>64</v>
       </c>
     </row>
@@ -11539,25 +11690,25 @@
       <c r="AF11" s="6">
         <v>33</v>
       </c>
-      <c r="AG11" s="42">
+      <c r="AG11" s="41">
         <v>32</v>
       </c>
-      <c r="AH11" s="42">
+      <c r="AH11" s="41">
         <v>48</v>
       </c>
-      <c r="AI11" s="42">
+      <c r="AI11" s="41">
         <v>61</v>
       </c>
-      <c r="AJ11" s="42">
+      <c r="AJ11" s="41">
         <v>-61</v>
       </c>
-      <c r="AK11" s="42">
+      <c r="AK11" s="41">
         <v>-46</v>
       </c>
-      <c r="AL11" s="42">
+      <c r="AL11" s="41">
         <v>-14</v>
       </c>
-      <c r="AM11" s="42">
+      <c r="AM11" s="41">
         <v>8</v>
       </c>
       <c r="AN11" s="6">
@@ -11646,10 +11797,10 @@
       <c r="AN12" s="3">
         <v>33</v>
       </c>
-      <c r="AO12" s="44">
+      <c r="AO12" s="43">
         <v>43</v>
       </c>
-      <c r="AP12" s="44">
+      <c r="AP12" s="43">
         <v>4</v>
       </c>
       <c r="AQ12" s="3">
@@ -11741,7 +11892,7 @@
       <c r="Y13" s="2">
         <v>-63</v>
       </c>
-      <c r="Z13" s="43">
+      <c r="Z13" s="42">
         <v>-20</v>
       </c>
       <c r="AA13" s="2">
@@ -11768,25 +11919,25 @@
       <c r="AH13" s="2">
         <v>-14</v>
       </c>
-      <c r="AI13" s="43">
+      <c r="AI13" s="42">
         <v>-46</v>
       </c>
       <c r="AJ13" s="2">
         <v>-61</v>
       </c>
-      <c r="AK13" s="46">
+      <c r="AK13" s="45">
         <v>61</v>
       </c>
-      <c r="AL13" s="46">
+      <c r="AL13" s="45">
         <v>48</v>
       </c>
       <c r="AM13" s="1">
         <v>32</v>
       </c>
-      <c r="AN13" s="46">
+      <c r="AN13" s="45">
         <v>33</v>
       </c>
-      <c r="AO13" s="46">
+      <c r="AO13" s="45">
         <v>4</v>
       </c>
       <c r="AP13" s="4">
@@ -11896,22 +12047,22 @@
       <c r="AD14" s="1">
         <v>-23</v>
       </c>
-      <c r="AE14" s="45">
+      <c r="AE14" s="44">
         <v>24</v>
       </c>
-      <c r="AF14" s="45">
+      <c r="AF14" s="44">
         <v>33</v>
       </c>
-      <c r="AG14" s="45">
+      <c r="AG14" s="44">
         <v>8</v>
       </c>
-      <c r="AH14" s="45">
+      <c r="AH14" s="44">
         <v>-14</v>
       </c>
-      <c r="AI14" s="45">
+      <c r="AI14" s="44">
         <v>-20</v>
       </c>
-      <c r="AJ14" s="45">
+      <c r="AJ14" s="44">
         <v>-61</v>
       </c>
       <c r="AK14" s="1">
@@ -12051,13 +12202,13 @@
       <c r="AM15" s="2">
         <v>32</v>
       </c>
-      <c r="AN15" s="44">
+      <c r="AN15" s="43">
         <v>48</v>
       </c>
       <c r="AO15" s="3">
         <v>61</v>
       </c>
-      <c r="AP15" s="44">
+      <c r="AP15" s="43">
         <v>43</v>
       </c>
       <c r="AQ15" s="2">
@@ -12134,10 +12285,10 @@
       <c r="AB16" s="1">
         <v>-23</v>
       </c>
-      <c r="AC16" s="45">
+      <c r="AC16" s="44">
         <v>0</v>
       </c>
-      <c r="AD16" s="45">
+      <c r="AD16" s="44">
         <v>-10</v>
       </c>
       <c r="AE16" s="1">
@@ -12152,28 +12303,28 @@
       <c r="AH16" s="1">
         <v>8</v>
       </c>
-      <c r="AI16" s="45">
+      <c r="AI16" s="44">
         <v>33</v>
       </c>
-      <c r="AJ16" s="45">
+      <c r="AJ16" s="44">
         <v>24</v>
       </c>
       <c r="AK16" s="1">
         <v>4</v>
       </c>
-      <c r="AL16" s="45">
+      <c r="AL16" s="44">
         <v>33</v>
       </c>
-      <c r="AM16" s="45">
+      <c r="AM16" s="44">
         <v>32</v>
       </c>
       <c r="AN16" s="1">
         <v>43</v>
       </c>
-      <c r="AO16" s="45">
+      <c r="AO16" s="44">
         <v>61</v>
       </c>
-      <c r="AP16" s="45">
+      <c r="AP16" s="44">
         <v>48</v>
       </c>
       <c r="AQ16" s="2">
@@ -12588,16 +12739,16 @@
       <c r="AB21" s="2">
         <v>-23</v>
       </c>
-      <c r="AC21" s="43">
+      <c r="AC21" s="42">
         <v>-10</v>
       </c>
-      <c r="AD21" s="43">
+      <c r="AD21" s="42">
         <v>0</v>
       </c>
-      <c r="AE21" s="43">
+      <c r="AE21" s="42">
         <v>-61</v>
       </c>
-      <c r="AF21" s="43">
+      <c r="AF21" s="42">
         <v>-20</v>
       </c>
       <c r="AG21" s="2">
@@ -12624,13 +12775,13 @@
       <c r="AN21" s="3">
         <v>43</v>
       </c>
-      <c r="AO21" s="44">
+      <c r="AO21" s="43">
         <v>48</v>
       </c>
       <c r="AP21" s="3">
         <v>61</v>
       </c>
-      <c r="AQ21" s="44">
+      <c r="AQ21" s="43">
         <v>45</v>
       </c>
       <c r="AR21" s="3">
@@ -12909,10 +13060,10 @@
       <c r="AE24" s="4">
         <v>0</v>
       </c>
-      <c r="AF24" s="45">
+      <c r="AF24" s="44">
         <v>-10</v>
       </c>
-      <c r="AG24" s="45">
+      <c r="AG24" s="44">
         <v>-14</v>
       </c>
       <c r="AH24" s="4">
@@ -12939,13 +13090,13 @@
       <c r="AO24" s="3">
         <v>45</v>
       </c>
-      <c r="AP24" s="43">
+      <c r="AP24" s="42">
         <v>61</v>
       </c>
       <c r="AQ24" s="2">
         <v>48</v>
       </c>
-      <c r="AR24" s="43">
+      <c r="AR24" s="42">
         <v>59</v>
       </c>
       <c r="AS24" s="3">
@@ -12992,7 +13143,7 @@
       <c r="K25" s="9">
         <v>48</v>
       </c>
-      <c r="L25" s="40">
+      <c r="L25" s="39">
         <v>8</v>
       </c>
       <c r="M25" s="1">
@@ -13007,7 +13158,7 @@
       <c r="P25" s="1">
         <v>-46</v>
       </c>
-      <c r="Q25" s="40">
+      <c r="Q25" s="39">
         <v>-61</v>
       </c>
       <c r="R25" s="4">
@@ -13061,10 +13212,10 @@
       <c r="AI25" s="3">
         <v>4</v>
       </c>
-      <c r="AJ25" s="46">
+      <c r="AJ25" s="45">
         <v>32</v>
       </c>
-      <c r="AK25" s="46">
+      <c r="AK25" s="45">
         <v>24</v>
       </c>
       <c r="AL25" s="4">
@@ -13079,10 +13230,10 @@
       <c r="AO25" s="4">
         <v>45</v>
       </c>
-      <c r="AP25" s="46">
+      <c r="AP25" s="45">
         <v>59</v>
       </c>
-      <c r="AQ25" s="46">
+      <c r="AQ25" s="45">
         <v>48</v>
       </c>
       <c r="AR25" s="4">
@@ -13135,7 +13286,7 @@
       <c r="L26">
         <v>-61</v>
       </c>
-      <c r="M26" s="41">
+      <c r="M26" s="40">
         <v>33</v>
       </c>
       <c r="N26">
@@ -13144,28 +13295,28 @@
       <c r="O26">
         <v>-14</v>
       </c>
-      <c r="P26" s="41">
+      <c r="P26" s="40">
         <v>-46</v>
       </c>
       <c r="Q26">
         <v>8</v>
       </c>
-      <c r="R26" s="36">
+      <c r="R26" s="35">
         <v>59</v>
       </c>
       <c r="S26" s="2">
         <v>4</v>
       </c>
-      <c r="T26" s="36">
+      <c r="T26" s="35">
         <v>45</v>
       </c>
-      <c r="U26" s="35">
+      <c r="U26" s="34">
         <v>68</v>
       </c>
       <c r="V26" s="3">
         <v>60</v>
       </c>
-      <c r="W26" s="35">
+      <c r="W26" s="34">
         <v>64</v>
       </c>
       <c r="Y26" s="2">
@@ -13263,28 +13414,28 @@
       <c r="M27">
         <v>-46</v>
       </c>
-      <c r="N27" s="41">
+      <c r="N27" s="40">
         <v>43</v>
       </c>
-      <c r="O27" s="41">
+      <c r="O27" s="40">
         <v>-14</v>
       </c>
       <c r="P27">
         <v>33</v>
       </c>
-      <c r="R27" s="40">
+      <c r="R27" s="39">
         <v>45</v>
       </c>
-      <c r="S27" s="40">
+      <c r="S27" s="39">
         <v>4</v>
       </c>
       <c r="T27" s="4">
         <v>59</v>
       </c>
-      <c r="U27" s="40">
+      <c r="U27" s="39">
         <v>64</v>
       </c>
-      <c r="V27" s="40">
+      <c r="V27" s="39">
         <v>60</v>
       </c>
       <c r="W27" s="4">
@@ -13302,19 +13453,19 @@
       <c r="AD27" s="1">
         <v>-61</v>
       </c>
-      <c r="AE27" s="45">
+      <c r="AE27" s="44">
         <v>0</v>
       </c>
-      <c r="AF27" s="45">
+      <c r="AF27" s="44">
         <v>-14</v>
       </c>
       <c r="AG27" s="1">
         <v>-10</v>
       </c>
-      <c r="AH27" s="45">
+      <c r="AH27" s="44">
         <v>8</v>
       </c>
-      <c r="AI27" s="45">
+      <c r="AI27" s="44">
         <v>4</v>
       </c>
     </row>
@@ -13361,13 +13512,13 @@
       <c r="N28" s="2">
         <v>-14</v>
       </c>
-      <c r="O28" s="35">
+      <c r="O28" s="34">
         <v>43</v>
       </c>
       <c r="P28" s="3">
         <v>33</v>
       </c>
-      <c r="Q28" s="35">
+      <c r="Q28" s="34">
         <v>8</v>
       </c>
       <c r="R28" s="1">
@@ -13826,10 +13977,10 @@
       <c r="F34" s="1">
         <v>-23</v>
       </c>
-      <c r="G34" s="39">
+      <c r="G34" s="38">
         <v>33</v>
       </c>
-      <c r="H34" s="39">
+      <c r="H34" s="38">
         <v>24</v>
       </c>
       <c r="I34" s="1">
@@ -13936,13 +14087,13 @@
       <c r="AA35" s="2">
         <v>-40</v>
       </c>
-      <c r="AB35" s="44">
+      <c r="AB35" s="43">
         <v>-23</v>
       </c>
       <c r="AC35" s="3">
         <v>-20</v>
       </c>
-      <c r="AD35" s="44">
+      <c r="AD35" s="43">
         <v>-61</v>
       </c>
       <c r="AE35" s="2">
@@ -14025,19 +14176,19 @@
       <c r="AB36" s="1">
         <v>-61</v>
       </c>
-      <c r="AC36" s="45">
+      <c r="AC36" s="44">
         <v>-20</v>
       </c>
-      <c r="AD36" s="45">
+      <c r="AD36" s="44">
         <v>-23</v>
       </c>
       <c r="AE36" s="1">
         <v>-14</v>
       </c>
-      <c r="AF36" s="45">
+      <c r="AF36" s="44">
         <v>0</v>
       </c>
-      <c r="AG36" s="45">
+      <c r="AG36" s="44">
         <v>-10</v>
       </c>
       <c r="AH36" s="1">
@@ -14075,25 +14226,25 @@
       <c r="H37" s="6">
         <v>33</v>
       </c>
-      <c r="I37" s="42">
+      <c r="I37" s="41">
         <v>32</v>
       </c>
-      <c r="J37" s="42">
+      <c r="J37" s="41">
         <v>48</v>
       </c>
-      <c r="K37" s="42">
+      <c r="K37" s="41">
         <v>61</v>
       </c>
       <c r="L37" s="6">
         <v>-61</v>
       </c>
-      <c r="M37" s="42">
+      <c r="M37" s="41">
         <v>-46</v>
       </c>
-      <c r="N37" s="42">
+      <c r="N37" s="41">
         <v>-14</v>
       </c>
-      <c r="O37" s="42">
+      <c r="O37" s="41">
         <v>8</v>
       </c>
       <c r="P37" s="6">
@@ -14161,7 +14312,7 @@
       <c r="A38" s="2">
         <v>-63</v>
       </c>
-      <c r="B38" s="43">
+      <c r="B38" s="42">
         <v>-20</v>
       </c>
       <c r="C38" s="2">
@@ -14188,7 +14339,7 @@
       <c r="J38" s="2">
         <v>-14</v>
       </c>
-      <c r="K38" s="43">
+      <c r="K38" s="42">
         <v>-46</v>
       </c>
       <c r="L38" s="2">
@@ -14247,28 +14398,28 @@
       <c r="F39" s="1">
         <v>-23</v>
       </c>
-      <c r="G39" s="45">
+      <c r="G39" s="44">
         <v>24</v>
       </c>
-      <c r="H39" s="45">
+      <c r="H39" s="44">
         <v>33</v>
       </c>
-      <c r="I39" s="45">
+      <c r="I39" s="44">
         <v>8</v>
       </c>
-      <c r="J39" s="45">
+      <c r="J39" s="44">
         <v>-14</v>
       </c>
-      <c r="K39" s="45">
+      <c r="K39" s="44">
         <v>-20</v>
       </c>
-      <c r="L39" s="45">
+      <c r="L39" s="44">
         <v>-61</v>
       </c>
-      <c r="M39" s="46">
+      <c r="M39" s="45">
         <v>61</v>
       </c>
-      <c r="N39" s="46">
+      <c r="N39" s="45">
         <v>48</v>
       </c>
       <c r="O39" s="1">
@@ -14277,10 +14428,10 @@
       <c r="P39" s="1">
         <v>33</v>
       </c>
-      <c r="Q39" s="46">
+      <c r="Q39" s="45">
         <v>43</v>
       </c>
-      <c r="R39" s="46">
+      <c r="R39" s="45">
         <v>4</v>
       </c>
       <c r="S39" s="4">
@@ -14309,13 +14460,13 @@
       <c r="C40" s="2">
         <v>-40</v>
       </c>
-      <c r="D40" s="44">
+      <c r="D40" s="43">
         <v>0</v>
       </c>
       <c r="E40" s="3">
         <v>10</v>
       </c>
-      <c r="F40" s="44">
+      <c r="F40" s="43">
         <v>-23</v>
       </c>
       <c r="G40" s="2">
@@ -14339,13 +14490,13 @@
       <c r="M40" s="1">
         <v>4</v>
       </c>
-      <c r="N40" s="46">
+      <c r="N40" s="45">
         <v>43</v>
       </c>
       <c r="O40" s="1">
         <v>32</v>
       </c>
-      <c r="P40" s="46">
+      <c r="P40" s="45">
         <v>33</v>
       </c>
       <c r="Q40" s="1">
@@ -14422,13 +14573,13 @@
       <c r="Q41" s="3">
         <v>48</v>
       </c>
-      <c r="R41" s="43">
+      <c r="R41" s="42">
         <v>61</v>
       </c>
       <c r="S41" s="2">
         <v>45</v>
       </c>
-      <c r="T41" s="43">
+      <c r="T41" s="42">
         <v>59</v>
       </c>
       <c r="U41" s="3">
@@ -14544,10 +14695,10 @@
       <c r="J42" s="1">
         <v>8</v>
       </c>
-      <c r="K42" s="45">
+      <c r="K42" s="44">
         <v>33</v>
       </c>
-      <c r="L42" s="45">
+      <c r="L42" s="44">
         <v>24</v>
       </c>
       <c r="M42" s="2">
@@ -14565,10 +14716,10 @@
       <c r="Q42" s="3">
         <v>48</v>
       </c>
-      <c r="R42" s="46">
+      <c r="R42" s="45">
         <v>59</v>
       </c>
-      <c r="S42" s="46">
+      <c r="S42" s="45">
         <v>45</v>
       </c>
       <c r="T42" s="4">
@@ -14767,10 +14918,10 @@
       <c r="Z44" s="1">
         <v>-46</v>
       </c>
-      <c r="AA44" s="46">
+      <c r="AA44" s="45">
         <v>-40</v>
       </c>
-      <c r="AB44" s="46">
+      <c r="AB44" s="45">
         <v>-61</v>
       </c>
       <c r="AC44" s="1">
@@ -14861,13 +15012,13 @@
       <c r="J46" s="6">
         <v>8</v>
       </c>
-      <c r="K46" s="42">
+      <c r="K46" s="41">
         <v>24</v>
       </c>
       <c r="L46" s="6">
         <v>33</v>
       </c>
-      <c r="M46" s="42">
+      <c r="M46" s="41">
         <v>4</v>
       </c>
       <c r="N46" s="6">
@@ -14929,16 +15080,16 @@
       <c r="D47" s="2">
         <v>-23</v>
       </c>
-      <c r="E47" s="43">
+      <c r="E47" s="42">
         <v>10</v>
       </c>
-      <c r="F47" s="43">
+      <c r="F47" s="42">
         <v>0</v>
       </c>
-      <c r="G47" s="43">
+      <c r="G47" s="42">
         <v>-61</v>
       </c>
-      <c r="H47" s="43">
+      <c r="H47" s="42">
         <v>-20</v>
       </c>
       <c r="I47" s="2">
@@ -15051,10 +15202,10 @@
       <c r="P48" s="3">
         <v>43</v>
       </c>
-      <c r="Q48" s="44">
+      <c r="Q48" s="43">
         <v>48</v>
       </c>
-      <c r="R48" s="44">
+      <c r="R48" s="43">
         <v>45</v>
       </c>
       <c r="S48" s="3">
@@ -15095,13 +15246,13 @@
       <c r="G49" s="4">
         <v>0</v>
       </c>
-      <c r="H49" s="45">
+      <c r="H49" s="44">
         <v>10</v>
       </c>
       <c r="I49" s="4">
         <v>-14</v>
       </c>
-      <c r="J49" s="45">
+      <c r="J49" s="44">
         <v>8</v>
       </c>
       <c r="K49" s="4">
@@ -15113,10 +15264,10 @@
       <c r="M49" s="1">
         <v>24</v>
       </c>
-      <c r="N49" s="46">
+      <c r="N49" s="45">
         <v>33</v>
       </c>
-      <c r="O49" s="46">
+      <c r="O49" s="45">
         <v>32</v>
       </c>
       <c r="P49" s="1">
@@ -15131,10 +15282,10 @@
       <c r="S49" s="4">
         <v>59</v>
       </c>
-      <c r="T49" s="45">
+      <c r="T49" s="44">
         <v>61</v>
       </c>
-      <c r="U49" s="45">
+      <c r="U49" s="44">
         <v>60</v>
       </c>
       <c r="V49" s="4">
@@ -15166,10 +15317,10 @@
       <c r="G50" s="4">
         <v>0</v>
       </c>
-      <c r="H50" s="45">
+      <c r="H50" s="44">
         <v>8</v>
       </c>
-      <c r="I50" s="45">
+      <c r="I50" s="44">
         <v>-14</v>
       </c>
       <c r="J50" s="4">
@@ -15178,13 +15329,13 @@
       <c r="K50" s="4">
         <v>4</v>
       </c>
-      <c r="L50" s="43">
+      <c r="L50" s="42">
         <v>33</v>
       </c>
       <c r="M50" s="2">
         <v>24</v>
       </c>
-      <c r="N50" s="43">
+      <c r="N50" s="42">
         <v>32</v>
       </c>
       <c r="O50" s="3">
@@ -15321,10 +15472,10 @@
       <c r="K51" s="3">
         <v>4</v>
       </c>
-      <c r="L51" s="46">
+      <c r="L51" s="45">
         <v>32</v>
       </c>
-      <c r="M51" s="46">
+      <c r="M51" s="45">
         <v>24</v>
       </c>
       <c r="N51" s="4">
@@ -15339,12 +15490,12 @@
       <c r="Q51" s="4">
         <v>45</v>
       </c>
-      <c r="R51" s="37"/>
-      <c r="S51" s="37"/>
-      <c r="T51" s="37"/>
-      <c r="U51" s="37"/>
-      <c r="V51" s="37"/>
-      <c r="W51" s="37"/>
+      <c r="R51" s="36"/>
+      <c r="S51" s="36"/>
+      <c r="T51" s="36"/>
+      <c r="U51" s="36"/>
+      <c r="V51" s="36"/>
+      <c r="W51" s="36"/>
       <c r="Y51" s="2">
         <v>-63</v>
       </c>
@@ -15467,12 +15618,12 @@
       <c r="Q52" s="4">
         <v>45</v>
       </c>
-      <c r="R52" s="37"/>
-      <c r="S52" s="37"/>
-      <c r="T52" s="37"/>
-      <c r="U52" s="37"/>
-      <c r="V52" s="37"/>
-      <c r="W52" s="37"/>
+      <c r="R52" s="36"/>
+      <c r="S52" s="36"/>
+      <c r="T52" s="36"/>
+      <c r="U52" s="36"/>
+      <c r="V52" s="36"/>
+      <c r="W52" s="36"/>
       <c r="Y52" s="2">
         <v>-63</v>
       </c>
@@ -15556,19 +15707,19 @@
       <c r="F53" s="1">
         <v>-61</v>
       </c>
-      <c r="G53" s="45">
+      <c r="G53" s="44">
         <v>0</v>
       </c>
-      <c r="H53" s="45">
+      <c r="H53" s="44">
         <v>-14</v>
       </c>
       <c r="I53" s="1">
         <v>4</v>
       </c>
-      <c r="J53" s="45">
+      <c r="J53" s="44">
         <v>10</v>
       </c>
-      <c r="K53" s="45">
+      <c r="K53" s="44">
         <v>8</v>
       </c>
       <c r="Y53" s="1">
@@ -15655,10 +15806,10 @@
       <c r="Y56" s="1">
         <v>-63</v>
       </c>
-      <c r="Z56" s="45">
+      <c r="Z56" s="44">
         <v>-46</v>
       </c>
-      <c r="AA56" s="45">
+      <c r="AA56" s="44">
         <v>-61</v>
       </c>
     </row>
@@ -15803,7 +15954,7 @@
       <c r="AU58" s="6">
         <v>68</v>
       </c>
-      <c r="AV58" s="41" t="s">
+      <c r="AV58" s="40" t="s">
         <v>16</v>
       </c>
     </row>
@@ -15814,6 +15965,642 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="11" width="5" customWidth="1"/>
+    <col min="12" max="12" width="31" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="41">
+        <v>27</v>
+      </c>
+      <c r="B1" s="6">
+        <v>-21</v>
+      </c>
+      <c r="C1" s="41">
+        <v>7</v>
+      </c>
+      <c r="D1" s="6">
+        <v>-23</v>
+      </c>
+      <c r="E1" s="41">
+        <v>29</v>
+      </c>
+      <c r="F1" s="6">
+        <v>29</v>
+      </c>
+      <c r="G1" s="41">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6">
+        <v>-23</v>
+      </c>
+      <c r="I1" s="41">
+        <v>-32</v>
+      </c>
+      <c r="J1" s="6">
+        <v>21</v>
+      </c>
+      <c r="K1" s="41">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="42">
+        <v>13</v>
+      </c>
+      <c r="B2" s="42">
+        <v>-21</v>
+      </c>
+      <c r="C2" s="2">
+        <v>-32</v>
+      </c>
+      <c r="D2" s="42">
+        <v>-23</v>
+      </c>
+      <c r="E2" s="42">
+        <v>6</v>
+      </c>
+      <c r="F2" s="43">
+        <v>29</v>
+      </c>
+      <c r="G2" s="43">
+        <v>29</v>
+      </c>
+      <c r="H2" s="3">
+        <v>-23</v>
+      </c>
+      <c r="I2" s="3">
+        <v>7</v>
+      </c>
+      <c r="J2" s="43">
+        <v>21</v>
+      </c>
+      <c r="K2" s="43">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2">
+        <v>-23</v>
+      </c>
+      <c r="C3" s="2">
+        <v>-32</v>
+      </c>
+      <c r="D3" s="2">
+        <v>-21</v>
+      </c>
+      <c r="E3" s="2">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2">
+        <v>27</v>
+      </c>
+      <c r="G3" s="3">
+        <v>21</v>
+      </c>
+      <c r="H3" s="3">
+        <v>-23</v>
+      </c>
+      <c r="I3" s="3">
+        <v>7</v>
+      </c>
+      <c r="J3" s="3">
+        <v>29</v>
+      </c>
+      <c r="K3" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="45">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-23</v>
+      </c>
+      <c r="C4" s="45">
+        <v>-32</v>
+      </c>
+      <c r="D4" s="4">
+        <v>-21</v>
+      </c>
+      <c r="E4" s="4">
+        <v>13</v>
+      </c>
+      <c r="F4" s="4">
+        <v>27</v>
+      </c>
+      <c r="G4" s="45">
+        <v>21</v>
+      </c>
+      <c r="H4" s="45">
+        <v>-23</v>
+      </c>
+      <c r="I4" s="4">
+        <v>7</v>
+      </c>
+      <c r="J4" s="4">
+        <v>29</v>
+      </c>
+      <c r="K4" s="4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>-32</v>
+      </c>
+      <c r="B5" s="3">
+        <v>-23</v>
+      </c>
+      <c r="C5" s="3">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2">
+        <v>-21</v>
+      </c>
+      <c r="E5" s="3">
+        <v>13</v>
+      </c>
+      <c r="F5" s="3">
+        <v>27</v>
+      </c>
+      <c r="G5" s="1">
+        <v>-23</v>
+      </c>
+      <c r="H5" s="1">
+        <v>21</v>
+      </c>
+      <c r="I5" s="1">
+        <v>7</v>
+      </c>
+      <c r="J5" s="4">
+        <v>29</v>
+      </c>
+      <c r="K5" s="4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>-32</v>
+      </c>
+      <c r="B6" s="2">
+        <v>-23</v>
+      </c>
+      <c r="C6" s="3">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2">
+        <v>-21</v>
+      </c>
+      <c r="E6" s="2">
+        <v>13</v>
+      </c>
+      <c r="F6" s="3">
+        <v>27</v>
+      </c>
+      <c r="G6" s="2">
+        <v>-23</v>
+      </c>
+      <c r="H6" s="43">
+        <v>21</v>
+      </c>
+      <c r="I6" s="43">
+        <v>7</v>
+      </c>
+      <c r="J6" s="2">
+        <v>29</v>
+      </c>
+      <c r="K6" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G7" s="2">
+        <v>-23</v>
+      </c>
+      <c r="H7" s="2">
+        <v>7</v>
+      </c>
+      <c r="I7" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="6">
+        <v>-32</v>
+      </c>
+      <c r="B9" s="6">
+        <v>-23</v>
+      </c>
+      <c r="C9" s="6">
+        <v>6</v>
+      </c>
+      <c r="D9" s="6">
+        <v>-21</v>
+      </c>
+      <c r="E9" s="41">
+        <v>13</v>
+      </c>
+      <c r="F9" s="6">
+        <v>27</v>
+      </c>
+      <c r="G9" s="41">
+        <v>-23</v>
+      </c>
+      <c r="H9" s="6">
+        <v>7</v>
+      </c>
+      <c r="I9" s="6">
+        <v>21</v>
+      </c>
+      <c r="J9" s="6">
+        <v>29</v>
+      </c>
+      <c r="K9" s="6">
+        <v>29</v>
+      </c>
+      <c r="L9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>-32</v>
+      </c>
+      <c r="B10" s="2">
+        <v>-23</v>
+      </c>
+      <c r="C10" s="42">
+        <v>6</v>
+      </c>
+      <c r="D10" s="42">
+        <v>-21</v>
+      </c>
+      <c r="E10" s="2">
+        <v>-23</v>
+      </c>
+      <c r="F10" s="2">
+        <v>27</v>
+      </c>
+      <c r="G10" s="3">
+        <v>13</v>
+      </c>
+      <c r="H10" s="3">
+        <v>7</v>
+      </c>
+      <c r="I10" s="3">
+        <v>21</v>
+      </c>
+      <c r="J10" s="3">
+        <v>29</v>
+      </c>
+      <c r="K10" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>-32</v>
+      </c>
+      <c r="B11" s="2">
+        <v>-23</v>
+      </c>
+      <c r="C11" s="2">
+        <v>-21</v>
+      </c>
+      <c r="D11" s="2">
+        <v>6</v>
+      </c>
+      <c r="E11" s="2">
+        <v>-23</v>
+      </c>
+      <c r="F11" s="3">
+        <v>27</v>
+      </c>
+      <c r="G11" s="3">
+        <v>13</v>
+      </c>
+      <c r="H11" s="3">
+        <v>7</v>
+      </c>
+      <c r="I11" s="3">
+        <v>21</v>
+      </c>
+      <c r="J11" s="3">
+        <v>29</v>
+      </c>
+      <c r="K11" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>-32</v>
+      </c>
+      <c r="B12" s="1">
+        <v>-23</v>
+      </c>
+      <c r="C12" s="1">
+        <v>-21</v>
+      </c>
+      <c r="D12" s="44">
+        <v>6</v>
+      </c>
+      <c r="E12" s="44">
+        <v>-23</v>
+      </c>
+      <c r="F12" s="45">
+        <v>27</v>
+      </c>
+      <c r="G12" s="1">
+        <v>13</v>
+      </c>
+      <c r="H12" s="45">
+        <v>7</v>
+      </c>
+      <c r="I12" s="4">
+        <v>21</v>
+      </c>
+      <c r="J12" s="4">
+        <v>29</v>
+      </c>
+      <c r="K12" s="4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>-32</v>
+      </c>
+      <c r="B13" s="1">
+        <v>-23</v>
+      </c>
+      <c r="C13" s="4">
+        <v>-21</v>
+      </c>
+      <c r="D13" s="4">
+        <v>-23</v>
+      </c>
+      <c r="E13" s="4">
+        <v>6</v>
+      </c>
+      <c r="F13" s="2">
+        <v>7</v>
+      </c>
+      <c r="G13" s="2">
+        <v>13</v>
+      </c>
+      <c r="H13" s="3">
+        <v>27</v>
+      </c>
+      <c r="I13" s="2">
+        <v>21</v>
+      </c>
+      <c r="J13" s="2">
+        <v>29</v>
+      </c>
+      <c r="K13" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C14" s="42">
+        <v>-21</v>
+      </c>
+      <c r="D14" s="42">
+        <v>-23</v>
+      </c>
+      <c r="E14" s="3">
+        <v>6</v>
+      </c>
+      <c r="F14" s="2">
+        <v>7</v>
+      </c>
+      <c r="G14" s="3">
+        <v>13</v>
+      </c>
+      <c r="H14" s="3">
+        <v>27</v>
+      </c>
+      <c r="I14" s="2">
+        <v>21</v>
+      </c>
+      <c r="J14" s="3">
+        <v>29</v>
+      </c>
+      <c r="K14" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C15" s="2">
+        <v>-23</v>
+      </c>
+      <c r="D15" s="3">
+        <v>-21</v>
+      </c>
+      <c r="E15" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="6">
+        <v>-32</v>
+      </c>
+      <c r="B18" s="6">
+        <v>-23</v>
+      </c>
+      <c r="C18" s="6">
+        <v>-23</v>
+      </c>
+      <c r="D18" s="6">
+        <v>-21</v>
+      </c>
+      <c r="E18" s="6">
+        <v>6</v>
+      </c>
+      <c r="F18" s="6">
+        <v>7</v>
+      </c>
+      <c r="G18" s="6">
+        <v>13</v>
+      </c>
+      <c r="H18" s="6">
+        <v>27</v>
+      </c>
+      <c r="I18" s="6">
+        <v>21</v>
+      </c>
+      <c r="J18" s="6">
+        <v>29</v>
+      </c>
+      <c r="K18" s="6">
+        <v>29</v>
+      </c>
+      <c r="L18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>-32</v>
+      </c>
+      <c r="B19" s="2">
+        <v>-23</v>
+      </c>
+      <c r="C19" s="2">
+        <v>-23</v>
+      </c>
+      <c r="D19" s="2">
+        <v>-21</v>
+      </c>
+      <c r="E19" s="2">
+        <v>6</v>
+      </c>
+      <c r="F19" s="3">
+        <v>7</v>
+      </c>
+      <c r="G19" s="3">
+        <v>13</v>
+      </c>
+      <c r="H19" s="43">
+        <v>27</v>
+      </c>
+      <c r="I19" s="43">
+        <v>21</v>
+      </c>
+      <c r="J19" s="3">
+        <v>29</v>
+      </c>
+      <c r="K19" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>-32</v>
+      </c>
+      <c r="B20" s="2">
+        <v>-23</v>
+      </c>
+      <c r="C20" s="2">
+        <v>-23</v>
+      </c>
+      <c r="D20" s="2">
+        <v>-21</v>
+      </c>
+      <c r="E20" s="2">
+        <v>6</v>
+      </c>
+      <c r="F20" s="2">
+        <v>7</v>
+      </c>
+      <c r="G20" s="3">
+        <v>13</v>
+      </c>
+      <c r="H20" s="3">
+        <v>21</v>
+      </c>
+      <c r="I20" s="3">
+        <v>27</v>
+      </c>
+      <c r="J20" s="3">
+        <v>29</v>
+      </c>
+      <c r="K20" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="36"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+    </row>
+    <row r="22" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="6">
+        <v>-32</v>
+      </c>
+      <c r="B24" s="6">
+        <v>-23</v>
+      </c>
+      <c r="C24" s="6">
+        <v>-23</v>
+      </c>
+      <c r="D24" s="6">
+        <v>-21</v>
+      </c>
+      <c r="E24" s="6">
+        <v>6</v>
+      </c>
+      <c r="F24" s="6">
+        <v>7</v>
+      </c>
+      <c r="G24" s="6">
+        <v>13</v>
+      </c>
+      <c r="H24" s="6">
+        <v>21</v>
+      </c>
+      <c r="I24" s="6">
+        <v>27</v>
+      </c>
+      <c r="J24" s="6">
+        <v>29</v>
+      </c>
+      <c r="K24" s="6">
+        <v>29</v>
+      </c>
+      <c r="L24" s="40" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI6"/>
   <sheetViews>
@@ -16465,151 +17252,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="2:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="F2" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-    </row>
-    <row r="3" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>524288</v>
-      </c>
-      <c r="D4">
-        <v>0.47799999999999998</v>
-      </c>
-      <c r="F4">
-        <v>524288</v>
-      </c>
-      <c r="H4">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <f t="shared" ref="B5:B11" si="0">B4/2</f>
-        <v>262144</v>
-      </c>
-      <c r="D5">
-        <v>0.224</v>
-      </c>
-      <c r="F5">
-        <f t="shared" ref="F5:F11" si="1">F4/2</f>
-        <v>262144</v>
-      </c>
-      <c r="H5">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <f t="shared" si="0"/>
-        <v>131072</v>
-      </c>
-      <c r="D6">
-        <v>0.108</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="1"/>
-        <v>131072</v>
-      </c>
-      <c r="H6">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <f t="shared" si="0"/>
-        <v>65536</v>
-      </c>
-      <c r="D7">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="1"/>
-        <v>65536</v>
-      </c>
-      <c r="H7">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <f t="shared" si="0"/>
-        <v>32768</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="1"/>
-        <v>32768</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <f t="shared" si="0"/>
-        <v>16384</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="1"/>
-        <v>16384</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <f t="shared" si="0"/>
-        <v>8192</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="1"/>
-        <v>8192</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <f t="shared" si="0"/>
-        <v>4096</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="1"/>
-        <v>4096</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:H2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Algorithms/End sort/Endsort.xlsx
+++ b/Algorithms/End sort/Endsort.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="691" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Example 1" sheetId="1" r:id="rId1"/>
@@ -2608,15 +2608,15 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H11"/>
+  <dimension ref="B2:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="46" t="s">
         <v>8</v>
       </c>
@@ -2628,7 +2628,7 @@
       <c r="G2" s="46"/>
       <c r="H2" s="46"/>
     </row>
-    <row r="3" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -2642,7 +2642,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>524288</v>
       </c>
@@ -2655,8 +2655,12 @@
       <c r="H4">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <f>D4/H4</f>
+        <v>5.3111111111111109</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5">
         <f t="shared" ref="B5:B11" si="0">B4/2</f>
         <v>262144</v>
@@ -2671,8 +2675,12 @@
       <c r="H5">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <f>D5/H5</f>
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6">
         <f t="shared" si="0"/>
         <v>131072</v>
@@ -2687,8 +2695,12 @@
       <c r="H6">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <f>D6/H6</f>
+        <v>5.3999999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7">
         <f t="shared" si="0"/>
         <v>65536</v>
@@ -2703,8 +2715,12 @@
       <c r="H7">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <f>D7/H7</f>
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8">
         <f t="shared" si="0"/>
         <v>32768</v>
@@ -2714,7 +2730,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9">
         <f t="shared" si="0"/>
         <v>16384</v>
@@ -2724,7 +2740,7 @@
         <v>16384</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10">
         <f t="shared" si="0"/>
         <v>8192</v>
@@ -2734,7 +2750,7 @@
         <v>8192</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11">
         <f t="shared" si="0"/>
         <v>4096</v>
@@ -2742,6 +2758,12 @@
       <c r="F11">
         <f t="shared" si="1"/>
         <v>4096</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <f>AVERAGE(J4:J7)</f>
+        <v>5.2777777777777777</v>
       </c>
     </row>
   </sheetData>
@@ -5759,8 +5781,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="41" width="4.28515625" customWidth="1"/>
-    <col min="42" max="42" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="41" width="4.25" customWidth="1"/>
+    <col min="42" max="42" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.25">
@@ -8059,8 +8081,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="23" width="3.7109375" customWidth="1"/>
-    <col min="24" max="24" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="23" width="3.75" customWidth="1"/>
+    <col min="24" max="24" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
@@ -9345,7 +9367,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="23" width="4" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
@@ -10627,11 +10649,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="23" width="4.85546875" customWidth="1"/>
-    <col min="24" max="24" width="2.7109375" style="37" customWidth="1"/>
+    <col min="1" max="23" width="4.875" customWidth="1"/>
+    <col min="24" max="24" width="2.75" style="37" customWidth="1"/>
     <col min="25" max="26" width="5" customWidth="1"/>
-    <col min="27" max="47" width="4.85546875" customWidth="1"/>
-    <col min="48" max="48" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="47" width="4.875" customWidth="1"/>
+    <col min="48" max="48" width="22.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -15968,7 +15990,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
@@ -16610,7 +16632,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="32" width="5.28515625" customWidth="1"/>
+    <col min="2" max="32" width="5.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">

--- a/Algorithms/End sort/Endsort.xlsx
+++ b/Algorithms/End sort/Endsort.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="691" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="691" firstSheet="3" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Example 1" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,11 @@
     <sheet name="Example 5 (23)" sheetId="8" r:id="rId6"/>
     <sheet name="Example 6 (23)" sheetId="9" r:id="rId7"/>
     <sheet name="Example 7 (11)" sheetId="10" r:id="rId8"/>
-    <sheet name="Corrrectness" sheetId="2" r:id="rId9"/>
-    <sheet name="Speed" sheetId="3" r:id="rId10"/>
+    <sheet name="Example 8 (12)" sheetId="11" r:id="rId9"/>
+    <sheet name="Example 9 (13)" sheetId="12" r:id="rId10"/>
+    <sheet name="Example 10 (13)" sheetId="13" r:id="rId11"/>
+    <sheet name="Corrrectness" sheetId="2" r:id="rId12"/>
+    <sheet name="Speed" sheetId="3" r:id="rId13"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="22">
   <si>
     <t>1 CYCLE</t>
   </si>
@@ -91,12 +94,21 @@
   <si>
     <t>SORTED AFTER 3 CYCLES</t>
   </si>
+  <si>
+    <t>BIG_LEFT = 0</t>
+  </si>
+  <si>
+    <t>BIG_LEFT = 1</t>
+  </si>
+  <si>
+    <t>Fin</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,6 +194,20 @@
       <b/>
       <sz val="15"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -418,7 +444,7 @@
     <xf numFmtId="0" fontId="9" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="6"/>
@@ -468,6 +494,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="6" applyFont="1"/>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="40% - Accent1" xfId="3" builtinId="31"/>
@@ -2608,10 +2636,2055 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J12"/>
+  <dimension ref="A1:N26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="13" width="4.25" customWidth="1"/>
+    <col min="14" max="14" width="10.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="2">
+        <v>-18</v>
+      </c>
+      <c r="B1" s="42">
+        <v>-20</v>
+      </c>
+      <c r="C1" s="2">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2">
+        <v>31</v>
+      </c>
+      <c r="E1" s="2">
+        <v>33</v>
+      </c>
+      <c r="F1" s="2">
+        <v>-30</v>
+      </c>
+      <c r="G1" s="2">
+        <v>-7</v>
+      </c>
+      <c r="H1" s="2">
+        <v>-10</v>
+      </c>
+      <c r="I1" s="2">
+        <v>39</v>
+      </c>
+      <c r="J1" s="2">
+        <v>34</v>
+      </c>
+      <c r="K1" s="2">
+        <v>15</v>
+      </c>
+      <c r="L1" s="42">
+        <v>-39</v>
+      </c>
+      <c r="M1" s="2">
+        <v>4</v>
+      </c>
+      <c r="N1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="44">
+        <v>-18</v>
+      </c>
+      <c r="B2" s="4">
+        <v>-39</v>
+      </c>
+      <c r="C2" s="4">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4">
+        <v>31</v>
+      </c>
+      <c r="E2" s="4">
+        <v>33</v>
+      </c>
+      <c r="F2" s="44">
+        <v>-30</v>
+      </c>
+      <c r="G2" s="1">
+        <v>-7</v>
+      </c>
+      <c r="H2" s="45">
+        <v>-10</v>
+      </c>
+      <c r="I2" s="45">
+        <v>39</v>
+      </c>
+      <c r="J2" s="1">
+        <v>34</v>
+      </c>
+      <c r="K2" s="45">
+        <v>15</v>
+      </c>
+      <c r="L2" s="45">
+        <v>-20</v>
+      </c>
+      <c r="M2" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>-30</v>
+      </c>
+      <c r="B3" s="4">
+        <v>-39</v>
+      </c>
+      <c r="C3" s="4">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4">
+        <v>31</v>
+      </c>
+      <c r="E3" s="4">
+        <v>33</v>
+      </c>
+      <c r="F3" s="4">
+        <v>-18</v>
+      </c>
+      <c r="G3" s="4">
+        <v>-7</v>
+      </c>
+      <c r="H3" s="1">
+        <v>-20</v>
+      </c>
+      <c r="I3" s="45">
+        <v>15</v>
+      </c>
+      <c r="J3" s="1">
+        <v>34</v>
+      </c>
+      <c r="K3" s="1">
+        <v>39</v>
+      </c>
+      <c r="L3" s="45">
+        <v>-10</v>
+      </c>
+      <c r="M3" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>-30</v>
+      </c>
+      <c r="B4" s="2">
+        <v>-39</v>
+      </c>
+      <c r="C4" s="2">
+        <v>10</v>
+      </c>
+      <c r="D4" s="43">
+        <v>31</v>
+      </c>
+      <c r="E4" s="43">
+        <v>33</v>
+      </c>
+      <c r="F4" s="43">
+        <v>-18</v>
+      </c>
+      <c r="G4" s="43">
+        <v>-7</v>
+      </c>
+      <c r="H4" s="2">
+        <v>-20</v>
+      </c>
+      <c r="I4" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J4" s="2">
+        <v>34</v>
+      </c>
+      <c r="K4" s="43">
+        <v>39</v>
+      </c>
+      <c r="L4" s="3">
+        <v>15</v>
+      </c>
+      <c r="M4" s="43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>-30</v>
+      </c>
+      <c r="B5" s="2">
+        <v>-39</v>
+      </c>
+      <c r="C5" s="2">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2">
+        <v>-7</v>
+      </c>
+      <c r="E5" s="3">
+        <v>-18</v>
+      </c>
+      <c r="F5" s="3">
+        <v>33</v>
+      </c>
+      <c r="G5" s="3">
+        <v>31</v>
+      </c>
+      <c r="H5" s="4">
+        <v>-20</v>
+      </c>
+      <c r="I5" s="1">
+        <v>-10</v>
+      </c>
+      <c r="J5" s="1">
+        <v>34</v>
+      </c>
+      <c r="K5" s="4">
+        <v>4</v>
+      </c>
+      <c r="L5" s="1">
+        <v>15</v>
+      </c>
+      <c r="M5" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="44">
+        <v>-30</v>
+      </c>
+      <c r="B6" s="44">
+        <v>-39</v>
+      </c>
+      <c r="C6" s="45">
+        <v>10</v>
+      </c>
+      <c r="D6" s="45">
+        <v>-7</v>
+      </c>
+      <c r="E6" s="4">
+        <v>-18</v>
+      </c>
+      <c r="F6" s="45">
+        <v>33</v>
+      </c>
+      <c r="G6" s="45">
+        <v>31</v>
+      </c>
+      <c r="H6" s="4">
+        <v>-20</v>
+      </c>
+      <c r="I6" s="4">
+        <v>-10</v>
+      </c>
+      <c r="J6" s="1">
+        <v>34</v>
+      </c>
+      <c r="K6" s="4">
+        <v>4</v>
+      </c>
+      <c r="L6" s="4">
+        <v>15</v>
+      </c>
+      <c r="M6" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>-39</v>
+      </c>
+      <c r="B7" s="4">
+        <v>-30</v>
+      </c>
+      <c r="C7" s="1">
+        <v>-7</v>
+      </c>
+      <c r="D7" s="1">
+        <v>10</v>
+      </c>
+      <c r="E7" s="4">
+        <v>-18</v>
+      </c>
+      <c r="F7" s="4">
+        <v>31</v>
+      </c>
+      <c r="G7" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>-39</v>
+      </c>
+      <c r="B9" s="2">
+        <v>-30</v>
+      </c>
+      <c r="C9" s="2">
+        <v>-7</v>
+      </c>
+      <c r="D9" s="2">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2">
+        <v>-18</v>
+      </c>
+      <c r="F9" s="42">
+        <v>31</v>
+      </c>
+      <c r="G9" s="2">
+        <v>33</v>
+      </c>
+      <c r="H9" s="42">
+        <v>-20</v>
+      </c>
+      <c r="I9" s="2">
+        <v>-10</v>
+      </c>
+      <c r="J9" s="2">
+        <v>34</v>
+      </c>
+      <c r="K9" s="2">
+        <v>4</v>
+      </c>
+      <c r="L9" s="2">
+        <v>15</v>
+      </c>
+      <c r="M9" s="2">
+        <v>39</v>
+      </c>
+      <c r="N9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>-39</v>
+      </c>
+      <c r="B10" s="4">
+        <v>-30</v>
+      </c>
+      <c r="C10" s="44">
+        <v>-7</v>
+      </c>
+      <c r="D10" s="4">
+        <v>10</v>
+      </c>
+      <c r="E10" s="44">
+        <v>-18</v>
+      </c>
+      <c r="F10" s="4">
+        <v>-20</v>
+      </c>
+      <c r="G10" s="4">
+        <v>33</v>
+      </c>
+      <c r="H10" s="1">
+        <v>31</v>
+      </c>
+      <c r="I10" s="1">
+        <v>-10</v>
+      </c>
+      <c r="J10" s="45">
+        <v>34</v>
+      </c>
+      <c r="K10" s="45">
+        <v>4</v>
+      </c>
+      <c r="L10" s="1">
+        <v>15</v>
+      </c>
+      <c r="M10" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>-39</v>
+      </c>
+      <c r="B11" s="4">
+        <v>-30</v>
+      </c>
+      <c r="C11" s="4">
+        <v>-18</v>
+      </c>
+      <c r="D11" s="4">
+        <v>10</v>
+      </c>
+      <c r="E11" s="4">
+        <v>-7</v>
+      </c>
+      <c r="F11" s="4">
+        <v>-20</v>
+      </c>
+      <c r="G11" s="1">
+        <v>33</v>
+      </c>
+      <c r="H11" s="45">
+        <v>31</v>
+      </c>
+      <c r="I11" s="1">
+        <v>-10</v>
+      </c>
+      <c r="J11" s="1">
+        <v>4</v>
+      </c>
+      <c r="K11" s="1">
+        <v>34</v>
+      </c>
+      <c r="L11" s="45">
+        <v>15</v>
+      </c>
+      <c r="M11" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>-39</v>
+      </c>
+      <c r="B12" s="2">
+        <v>-30</v>
+      </c>
+      <c r="C12" s="2">
+        <v>-18</v>
+      </c>
+      <c r="D12" s="43">
+        <v>10</v>
+      </c>
+      <c r="E12" s="3">
+        <v>-7</v>
+      </c>
+      <c r="F12" s="43">
+        <v>-20</v>
+      </c>
+      <c r="G12" s="42">
+        <v>33</v>
+      </c>
+      <c r="H12" s="42">
+        <v>15</v>
+      </c>
+      <c r="I12" s="42">
+        <v>-10</v>
+      </c>
+      <c r="J12" s="42">
+        <v>4</v>
+      </c>
+      <c r="K12" s="3">
+        <v>34</v>
+      </c>
+      <c r="L12" s="3">
+        <v>31</v>
+      </c>
+      <c r="M12" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G13" s="2">
+        <v>4</v>
+      </c>
+      <c r="H13" s="2">
+        <v>-10</v>
+      </c>
+      <c r="I13" s="2">
+        <v>15</v>
+      </c>
+      <c r="J13" s="3">
+        <v>33</v>
+      </c>
+      <c r="K13" s="43">
+        <v>34</v>
+      </c>
+      <c r="L13" s="43">
+        <v>31</v>
+      </c>
+      <c r="M13" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G14" s="44">
+        <v>4</v>
+      </c>
+      <c r="H14" s="44">
+        <v>-10</v>
+      </c>
+      <c r="I14" s="1">
+        <v>15</v>
+      </c>
+      <c r="J14" s="44">
+        <v>33</v>
+      </c>
+      <c r="K14" s="44">
+        <v>31</v>
+      </c>
+      <c r="L14" s="1">
+        <v>34</v>
+      </c>
+      <c r="M14" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G15" s="4">
+        <v>-10</v>
+      </c>
+      <c r="H15" s="1">
+        <v>4</v>
+      </c>
+      <c r="I15" s="1">
+        <v>15</v>
+      </c>
+      <c r="J15" s="4">
+        <v>31</v>
+      </c>
+      <c r="K15" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>-39</v>
+      </c>
+      <c r="B17" s="2">
+        <v>-30</v>
+      </c>
+      <c r="C17" s="2">
+        <v>-18</v>
+      </c>
+      <c r="D17" s="2">
+        <v>-20</v>
+      </c>
+      <c r="E17" s="2">
+        <v>-7</v>
+      </c>
+      <c r="F17" s="42">
+        <v>10</v>
+      </c>
+      <c r="G17" s="2">
+        <v>-10</v>
+      </c>
+      <c r="H17" s="42">
+        <v>4</v>
+      </c>
+      <c r="I17" s="2">
+        <v>15</v>
+      </c>
+      <c r="J17" s="2">
+        <v>31</v>
+      </c>
+      <c r="K17" s="2">
+        <v>33</v>
+      </c>
+      <c r="L17" s="2">
+        <v>34</v>
+      </c>
+      <c r="M17" s="2">
+        <v>39</v>
+      </c>
+      <c r="N17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>-39</v>
+      </c>
+      <c r="B18" s="4">
+        <v>-30</v>
+      </c>
+      <c r="C18" s="44">
+        <v>-18</v>
+      </c>
+      <c r="D18" s="44">
+        <v>-20</v>
+      </c>
+      <c r="E18" s="4">
+        <v>-7</v>
+      </c>
+      <c r="F18" s="4">
+        <v>4</v>
+      </c>
+      <c r="G18" s="1">
+        <v>-10</v>
+      </c>
+      <c r="H18" s="1">
+        <v>10</v>
+      </c>
+      <c r="I18" s="1">
+        <v>15</v>
+      </c>
+      <c r="J18" s="1">
+        <v>31</v>
+      </c>
+      <c r="K18" s="1">
+        <v>33</v>
+      </c>
+      <c r="L18" s="1">
+        <v>34</v>
+      </c>
+      <c r="M18" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>-39</v>
+      </c>
+      <c r="B19" s="4">
+        <v>-30</v>
+      </c>
+      <c r="C19" s="4">
+        <v>-20</v>
+      </c>
+      <c r="D19" s="4">
+        <v>-18</v>
+      </c>
+      <c r="E19" s="4">
+        <v>-7</v>
+      </c>
+      <c r="F19" s="4">
+        <v>4</v>
+      </c>
+      <c r="G19" s="4">
+        <v>-10</v>
+      </c>
+      <c r="H19" s="1">
+        <v>10</v>
+      </c>
+      <c r="I19" s="1">
+        <v>15</v>
+      </c>
+      <c r="J19" s="1">
+        <v>31</v>
+      </c>
+      <c r="K19" s="1">
+        <v>33</v>
+      </c>
+      <c r="L19" s="1">
+        <v>34</v>
+      </c>
+      <c r="M19" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>-39</v>
+      </c>
+      <c r="B20" s="2">
+        <v>-30</v>
+      </c>
+      <c r="C20" s="2">
+        <v>-20</v>
+      </c>
+      <c r="D20" s="3">
+        <v>-18</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-7</v>
+      </c>
+      <c r="F20" s="3">
+        <v>4</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-10</v>
+      </c>
+      <c r="H20" s="2">
+        <v>10</v>
+      </c>
+      <c r="I20" s="2">
+        <v>15</v>
+      </c>
+      <c r="J20" s="2">
+        <v>31</v>
+      </c>
+      <c r="K20" s="3">
+        <v>33</v>
+      </c>
+      <c r="L20" s="3">
+        <v>34</v>
+      </c>
+      <c r="M20" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>-39</v>
+      </c>
+      <c r="B21" s="2">
+        <v>-30</v>
+      </c>
+      <c r="C21" s="2">
+        <v>-20</v>
+      </c>
+      <c r="D21" s="2">
+        <v>-18</v>
+      </c>
+      <c r="E21" s="43">
+        <v>-7</v>
+      </c>
+      <c r="F21" s="3">
+        <v>4</v>
+      </c>
+      <c r="G21" s="43">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E22" s="4">
+        <v>-10</v>
+      </c>
+      <c r="F22" s="45">
+        <v>4</v>
+      </c>
+      <c r="G22" s="45">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E23" s="4">
+        <v>-10</v>
+      </c>
+      <c r="F23" s="4">
+        <v>-7</v>
+      </c>
+      <c r="G23" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="6">
+        <v>-39</v>
+      </c>
+      <c r="B25" s="6">
+        <v>-30</v>
+      </c>
+      <c r="C25" s="6">
+        <v>-20</v>
+      </c>
+      <c r="D25" s="6">
+        <v>-18</v>
+      </c>
+      <c r="E25" s="6">
+        <v>-10</v>
+      </c>
+      <c r="F25" s="6">
+        <v>-7</v>
+      </c>
+      <c r="G25" s="6">
+        <v>4</v>
+      </c>
+      <c r="H25" s="6">
+        <v>10</v>
+      </c>
+      <c r="I25" s="6">
+        <v>15</v>
+      </c>
+      <c r="J25" s="6">
+        <v>31</v>
+      </c>
+      <c r="K25" s="6">
+        <v>33</v>
+      </c>
+      <c r="L25" s="6">
+        <v>34</v>
+      </c>
+      <c r="M25" s="6">
+        <v>39</v>
+      </c>
+      <c r="N25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N17"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="13" width="4" customWidth="1"/>
+    <col min="14" max="14" width="10.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="42">
+        <v>35</v>
+      </c>
+      <c r="B1" s="42">
+        <v>36</v>
+      </c>
+      <c r="C1" s="2">
+        <v>-30</v>
+      </c>
+      <c r="D1" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2">
+        <v>-38</v>
+      </c>
+      <c r="F1" s="2">
+        <v>-26</v>
+      </c>
+      <c r="G1" s="2">
+        <v>13</v>
+      </c>
+      <c r="H1" s="2">
+        <v>21</v>
+      </c>
+      <c r="I1" s="2">
+        <v>15</v>
+      </c>
+      <c r="J1" s="2">
+        <v>25</v>
+      </c>
+      <c r="K1" s="2">
+        <v>12</v>
+      </c>
+      <c r="L1" s="42">
+        <v>-6</v>
+      </c>
+      <c r="M1" s="42">
+        <v>25</v>
+      </c>
+      <c r="N1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="44">
+        <v>25</v>
+      </c>
+      <c r="B2" s="44">
+        <v>-6</v>
+      </c>
+      <c r="C2" s="4">
+        <v>-30</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="44">
+        <v>-38</v>
+      </c>
+      <c r="F2" s="44">
+        <v>-26</v>
+      </c>
+      <c r="G2" s="1">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1">
+        <v>21</v>
+      </c>
+      <c r="I2" s="45">
+        <v>15</v>
+      </c>
+      <c r="J2" s="1">
+        <v>25</v>
+      </c>
+      <c r="K2" s="45">
+        <v>12</v>
+      </c>
+      <c r="L2" s="1">
+        <v>36</v>
+      </c>
+      <c r="M2" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>-26</v>
+      </c>
+      <c r="B3" s="4">
+        <v>-38</v>
+      </c>
+      <c r="C3" s="4">
+        <v>-30</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>-6</v>
+      </c>
+      <c r="F3" s="4">
+        <v>25</v>
+      </c>
+      <c r="G3" s="4">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1">
+        <v>21</v>
+      </c>
+      <c r="I3" s="1">
+        <v>12</v>
+      </c>
+      <c r="J3" s="45">
+        <v>25</v>
+      </c>
+      <c r="K3" s="45">
+        <v>15</v>
+      </c>
+      <c r="L3" s="1">
+        <v>36</v>
+      </c>
+      <c r="M3" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="42">
+        <v>-26</v>
+      </c>
+      <c r="B4" s="2">
+        <v>-38</v>
+      </c>
+      <c r="C4" s="42">
+        <v>-30</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>-6</v>
+      </c>
+      <c r="F4" s="3">
+        <v>25</v>
+      </c>
+      <c r="G4" s="3">
+        <v>13</v>
+      </c>
+      <c r="H4" s="42">
+        <v>21</v>
+      </c>
+      <c r="I4" s="2">
+        <v>12</v>
+      </c>
+      <c r="J4" s="42">
+        <v>15</v>
+      </c>
+      <c r="K4" s="3">
+        <v>25</v>
+      </c>
+      <c r="L4" s="3">
+        <v>36</v>
+      </c>
+      <c r="M4" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>-30</v>
+      </c>
+      <c r="B5" s="2">
+        <v>-38</v>
+      </c>
+      <c r="C5" s="2">
+        <v>-26</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>-6</v>
+      </c>
+      <c r="F5" s="3">
+        <v>25</v>
+      </c>
+      <c r="G5" s="3">
+        <v>13</v>
+      </c>
+      <c r="H5" s="4">
+        <v>15</v>
+      </c>
+      <c r="I5" s="1">
+        <v>12</v>
+      </c>
+      <c r="J5" s="1">
+        <v>21</v>
+      </c>
+      <c r="K5" s="4">
+        <v>25</v>
+      </c>
+      <c r="L5" s="45">
+        <v>36</v>
+      </c>
+      <c r="M5" s="45">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="44">
+        <v>-30</v>
+      </c>
+      <c r="B6" s="44">
+        <v>-38</v>
+      </c>
+      <c r="C6" s="1">
+        <v>-26</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <v>-6</v>
+      </c>
+      <c r="F6" s="45">
+        <v>25</v>
+      </c>
+      <c r="G6" s="45">
+        <v>13</v>
+      </c>
+      <c r="H6" s="44">
+        <v>15</v>
+      </c>
+      <c r="I6" s="44">
+        <v>12</v>
+      </c>
+      <c r="J6" s="1">
+        <v>21</v>
+      </c>
+      <c r="K6" s="4">
+        <v>25</v>
+      </c>
+      <c r="L6" s="4">
+        <v>35</v>
+      </c>
+      <c r="M6" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>-38</v>
+      </c>
+      <c r="B7" s="4">
+        <v>-30</v>
+      </c>
+      <c r="C7" s="1">
+        <v>-26</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <v>-6</v>
+      </c>
+      <c r="F7" s="4">
+        <v>13</v>
+      </c>
+      <c r="G7" s="1">
+        <v>25</v>
+      </c>
+      <c r="H7" s="4">
+        <v>12</v>
+      </c>
+      <c r="I7" s="4">
+        <v>15</v>
+      </c>
+      <c r="J7" s="1">
+        <v>21</v>
+      </c>
+      <c r="K7" s="4">
+        <v>25</v>
+      </c>
+      <c r="L7" s="4">
+        <v>35</v>
+      </c>
+      <c r="M7" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>-38</v>
+      </c>
+      <c r="B9" s="2">
+        <v>-30</v>
+      </c>
+      <c r="C9" s="2">
+        <v>-26</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>-6</v>
+      </c>
+      <c r="F9" s="42">
+        <v>13</v>
+      </c>
+      <c r="G9" s="2">
+        <v>25</v>
+      </c>
+      <c r="H9" s="42">
+        <v>12</v>
+      </c>
+      <c r="I9" s="2">
+        <v>15</v>
+      </c>
+      <c r="J9" s="2">
+        <v>21</v>
+      </c>
+      <c r="K9" s="2">
+        <v>25</v>
+      </c>
+      <c r="L9" s="2">
+        <v>35</v>
+      </c>
+      <c r="M9" s="2">
+        <v>36</v>
+      </c>
+      <c r="N9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>-38</v>
+      </c>
+      <c r="B10" s="4">
+        <v>-30</v>
+      </c>
+      <c r="C10" s="4">
+        <v>-26</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4">
+        <v>-6</v>
+      </c>
+      <c r="F10" s="4">
+        <v>12</v>
+      </c>
+      <c r="G10" s="4">
+        <v>25</v>
+      </c>
+      <c r="H10" s="1">
+        <v>13</v>
+      </c>
+      <c r="I10" s="1">
+        <v>15</v>
+      </c>
+      <c r="J10" s="1">
+        <v>21</v>
+      </c>
+      <c r="K10" s="1">
+        <v>25</v>
+      </c>
+      <c r="L10" s="1">
+        <v>35</v>
+      </c>
+      <c r="M10" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>-38</v>
+      </c>
+      <c r="B11" s="4">
+        <v>-30</v>
+      </c>
+      <c r="C11" s="4">
+        <v>-26</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4">
+        <v>-6</v>
+      </c>
+      <c r="F11" s="4">
+        <v>12</v>
+      </c>
+      <c r="G11" s="1">
+        <v>25</v>
+      </c>
+      <c r="H11" s="1">
+        <v>13</v>
+      </c>
+      <c r="I11" s="1">
+        <v>15</v>
+      </c>
+      <c r="J11" s="1">
+        <v>21</v>
+      </c>
+      <c r="K11" s="1">
+        <v>25</v>
+      </c>
+      <c r="L11" s="1">
+        <v>35</v>
+      </c>
+      <c r="M11" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>-38</v>
+      </c>
+      <c r="B12" s="2">
+        <v>-30</v>
+      </c>
+      <c r="C12" s="2">
+        <v>-26</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>-6</v>
+      </c>
+      <c r="F12" s="3">
+        <v>12</v>
+      </c>
+      <c r="G12" s="42">
+        <v>25</v>
+      </c>
+      <c r="H12" s="2">
+        <v>13</v>
+      </c>
+      <c r="I12" s="2">
+        <v>15</v>
+      </c>
+      <c r="J12" s="42">
+        <v>21</v>
+      </c>
+      <c r="K12" s="3">
+        <v>25</v>
+      </c>
+      <c r="L12" s="3">
+        <v>35</v>
+      </c>
+      <c r="M12" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>-38</v>
+      </c>
+      <c r="B13" s="4">
+        <v>-30</v>
+      </c>
+      <c r="C13" s="1">
+        <v>-26</v>
+      </c>
+      <c r="D13" s="44">
+        <v>1</v>
+      </c>
+      <c r="E13" s="44">
+        <v>-6</v>
+      </c>
+      <c r="F13" s="1">
+        <v>12</v>
+      </c>
+      <c r="G13" s="42">
+        <v>21</v>
+      </c>
+      <c r="H13" s="2">
+        <v>13</v>
+      </c>
+      <c r="I13" s="42">
+        <v>15</v>
+      </c>
+      <c r="J13" s="3">
+        <v>25</v>
+      </c>
+      <c r="K13" s="3">
+        <v>25</v>
+      </c>
+      <c r="L13" s="3">
+        <v>35</v>
+      </c>
+      <c r="M13" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>-38</v>
+      </c>
+      <c r="B14" s="1">
+        <v>-30</v>
+      </c>
+      <c r="C14" s="1">
+        <v>-26</v>
+      </c>
+      <c r="D14" s="4">
+        <v>-6</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>12</v>
+      </c>
+      <c r="G14" s="44">
+        <v>15</v>
+      </c>
+      <c r="H14" s="44">
+        <v>13</v>
+      </c>
+      <c r="I14" s="1">
+        <v>21</v>
+      </c>
+      <c r="J14" s="4">
+        <v>25</v>
+      </c>
+      <c r="K14" s="4">
+        <v>25</v>
+      </c>
+      <c r="L14" s="1">
+        <v>35</v>
+      </c>
+      <c r="M14" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G15" s="4">
+        <v>13</v>
+      </c>
+      <c r="H15" s="1">
+        <v>15</v>
+      </c>
+      <c r="I15" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>-38</v>
+      </c>
+      <c r="B17" s="2">
+        <v>-30</v>
+      </c>
+      <c r="C17" s="2">
+        <v>-26</v>
+      </c>
+      <c r="D17" s="2">
+        <v>-6</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
+        <v>12</v>
+      </c>
+      <c r="G17" s="2">
+        <v>13</v>
+      </c>
+      <c r="H17" s="2">
+        <v>15</v>
+      </c>
+      <c r="I17" s="2">
+        <v>21</v>
+      </c>
+      <c r="J17" s="2">
+        <v>25</v>
+      </c>
+      <c r="K17" s="2">
+        <v>25</v>
+      </c>
+      <c r="L17" s="2">
+        <v>35</v>
+      </c>
+      <c r="M17" s="2">
+        <v>36</v>
+      </c>
+      <c r="N17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AI6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AA14" sqref="AA14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="32" width="5.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="8">
+        <v>0</v>
+      </c>
+      <c r="C1" s="12">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8">
+        <v>0</v>
+      </c>
+      <c r="E1" s="12">
+        <v>1</v>
+      </c>
+      <c r="F1" s="8">
+        <v>0</v>
+      </c>
+      <c r="G1" s="12">
+        <v>1</v>
+      </c>
+      <c r="H1" s="12">
+        <v>1</v>
+      </c>
+      <c r="I1" s="8">
+        <v>0</v>
+      </c>
+      <c r="J1" s="8">
+        <v>0</v>
+      </c>
+      <c r="K1" s="8">
+        <v>0</v>
+      </c>
+      <c r="L1" s="12">
+        <v>1</v>
+      </c>
+      <c r="M1" s="8">
+        <v>0</v>
+      </c>
+      <c r="N1" s="8">
+        <v>0</v>
+      </c>
+      <c r="O1" s="8">
+        <v>0</v>
+      </c>
+      <c r="P1" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="8">
+        <v>0</v>
+      </c>
+      <c r="R1" s="12">
+        <v>1</v>
+      </c>
+      <c r="S1" s="8">
+        <v>0</v>
+      </c>
+      <c r="T1" s="12">
+        <v>1</v>
+      </c>
+      <c r="U1" s="12">
+        <v>1</v>
+      </c>
+      <c r="V1" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1" s="8">
+        <v>0</v>
+      </c>
+      <c r="X1" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y1" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z1" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA1" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB1" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC1" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD1" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE1" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF1" s="12">
+        <v>1</v>
+      </c>
+      <c r="AH1">
+        <f t="shared" ref="AH1:AH6" si="0" xml:space="preserve"> SUM(B1:AF1)</f>
+        <v>13</v>
+      </c>
+      <c r="AI1">
+        <f t="shared" ref="AI1:AI6" si="1">AVERAGE(B1:AF1)</f>
+        <v>0.41935483870967744</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8">
+        <v>0</v>
+      </c>
+      <c r="D2" s="12">
+        <v>1</v>
+      </c>
+      <c r="E2" s="8">
+        <v>0</v>
+      </c>
+      <c r="F2" s="12">
+        <v>1</v>
+      </c>
+      <c r="G2" s="12">
+        <v>1</v>
+      </c>
+      <c r="H2" s="12">
+        <v>1</v>
+      </c>
+      <c r="I2" s="8">
+        <v>0</v>
+      </c>
+      <c r="J2" s="12">
+        <v>1</v>
+      </c>
+      <c r="K2" s="8">
+        <v>0</v>
+      </c>
+      <c r="L2" s="12">
+        <v>1</v>
+      </c>
+      <c r="M2" s="8">
+        <v>0</v>
+      </c>
+      <c r="N2" s="12">
+        <v>1</v>
+      </c>
+      <c r="O2" s="8">
+        <v>0</v>
+      </c>
+      <c r="P2" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>0</v>
+      </c>
+      <c r="R2" s="8">
+        <v>0</v>
+      </c>
+      <c r="S2" s="8">
+        <v>0</v>
+      </c>
+      <c r="T2" s="12">
+        <v>1</v>
+      </c>
+      <c r="U2" s="8">
+        <v>0</v>
+      </c>
+      <c r="V2" s="12">
+        <v>1</v>
+      </c>
+      <c r="W2" s="8">
+        <v>0</v>
+      </c>
+      <c r="X2" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="12">
+        <v>1</v>
+      </c>
+      <c r="AH2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="AI2">
+        <f t="shared" si="1"/>
+        <v>0.54838709677419351</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12">
+        <v>1</v>
+      </c>
+      <c r="C3" s="12">
+        <v>1</v>
+      </c>
+      <c r="D3" s="12">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0</v>
+      </c>
+      <c r="F3" s="12">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0</v>
+      </c>
+      <c r="H3" s="12">
+        <v>1</v>
+      </c>
+      <c r="I3" s="8">
+        <v>0</v>
+      </c>
+      <c r="J3" s="12">
+        <v>1</v>
+      </c>
+      <c r="K3" s="8">
+        <v>0</v>
+      </c>
+      <c r="L3" s="12">
+        <v>1</v>
+      </c>
+      <c r="M3" s="8">
+        <v>0</v>
+      </c>
+      <c r="N3" s="12">
+        <v>1</v>
+      </c>
+      <c r="O3" s="8">
+        <v>0</v>
+      </c>
+      <c r="P3" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>0</v>
+      </c>
+      <c r="R3" s="12">
+        <v>1</v>
+      </c>
+      <c r="S3" s="8">
+        <v>0</v>
+      </c>
+      <c r="T3" s="12">
+        <v>1</v>
+      </c>
+      <c r="U3" s="8">
+        <v>0</v>
+      </c>
+      <c r="V3" s="12">
+        <v>1</v>
+      </c>
+      <c r="W3" s="12">
+        <v>1</v>
+      </c>
+      <c r="X3" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="12">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="12">
+        <v>1</v>
+      </c>
+      <c r="AH3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="AI3">
+        <f t="shared" si="1"/>
+        <v>0.64516129032258063</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12">
+        <v>1</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1</v>
+      </c>
+      <c r="E4" s="12">
+        <v>1</v>
+      </c>
+      <c r="F4" s="12">
+        <v>1</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="12">
+        <v>1</v>
+      </c>
+      <c r="I4" s="12">
+        <v>1</v>
+      </c>
+      <c r="J4" s="8">
+        <v>0</v>
+      </c>
+      <c r="K4" s="12">
+        <v>1</v>
+      </c>
+      <c r="L4" s="12">
+        <v>1</v>
+      </c>
+      <c r="M4" s="12">
+        <v>1</v>
+      </c>
+      <c r="N4" s="12">
+        <v>1</v>
+      </c>
+      <c r="O4" s="12">
+        <v>1</v>
+      </c>
+      <c r="P4" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="12">
+        <v>1</v>
+      </c>
+      <c r="R4" s="8">
+        <v>0</v>
+      </c>
+      <c r="S4" s="8">
+        <v>0</v>
+      </c>
+      <c r="T4" s="12">
+        <v>1</v>
+      </c>
+      <c r="U4" s="12">
+        <v>1</v>
+      </c>
+      <c r="V4" s="12">
+        <v>1</v>
+      </c>
+      <c r="W4" s="12">
+        <v>1</v>
+      </c>
+      <c r="X4" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="12">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="12">
+        <v>1</v>
+      </c>
+      <c r="AH4">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="AI4">
+        <f t="shared" si="1"/>
+        <v>0.87096774193548387</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12">
+        <v>1</v>
+      </c>
+      <c r="C5" s="12">
+        <v>1</v>
+      </c>
+      <c r="D5" s="12">
+        <v>1</v>
+      </c>
+      <c r="E5" s="12">
+        <v>1</v>
+      </c>
+      <c r="F5" s="12">
+        <v>1</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+      <c r="H5" s="12">
+        <v>1</v>
+      </c>
+      <c r="I5" s="12">
+        <v>1</v>
+      </c>
+      <c r="J5" s="12">
+        <v>1</v>
+      </c>
+      <c r="K5" s="8">
+        <v>0</v>
+      </c>
+      <c r="L5" s="12">
+        <v>1</v>
+      </c>
+      <c r="M5" s="12">
+        <v>1</v>
+      </c>
+      <c r="N5" s="12">
+        <v>1</v>
+      </c>
+      <c r="O5" s="12">
+        <v>1</v>
+      </c>
+      <c r="P5" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="12">
+        <v>1</v>
+      </c>
+      <c r="R5" s="12">
+        <v>1</v>
+      </c>
+      <c r="S5" s="8">
+        <v>0</v>
+      </c>
+      <c r="T5" s="12">
+        <v>1</v>
+      </c>
+      <c r="U5" s="8">
+        <v>0</v>
+      </c>
+      <c r="V5" s="12">
+        <v>1</v>
+      </c>
+      <c r="W5" s="12">
+        <v>1</v>
+      </c>
+      <c r="X5" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="12">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="12">
+        <v>1</v>
+      </c>
+      <c r="AH5">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="AI5">
+        <f t="shared" si="1"/>
+        <v>0.87096774193548387</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12">
+        <v>1</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1</v>
+      </c>
+      <c r="D6" s="12">
+        <v>1</v>
+      </c>
+      <c r="E6" s="12">
+        <v>1</v>
+      </c>
+      <c r="F6" s="12">
+        <v>1</v>
+      </c>
+      <c r="G6" s="12">
+        <v>1</v>
+      </c>
+      <c r="H6" s="12">
+        <v>1</v>
+      </c>
+      <c r="I6" s="12">
+        <v>1</v>
+      </c>
+      <c r="J6" s="12">
+        <v>1</v>
+      </c>
+      <c r="K6" s="12">
+        <v>1</v>
+      </c>
+      <c r="L6" s="12">
+        <v>1</v>
+      </c>
+      <c r="M6" s="12">
+        <v>1</v>
+      </c>
+      <c r="N6" s="12">
+        <v>1</v>
+      </c>
+      <c r="O6" s="12">
+        <v>1</v>
+      </c>
+      <c r="P6" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="12">
+        <v>1</v>
+      </c>
+      <c r="R6" s="12">
+        <v>1</v>
+      </c>
+      <c r="S6" s="8">
+        <v>1</v>
+      </c>
+      <c r="T6" s="12">
+        <v>1</v>
+      </c>
+      <c r="U6" s="12">
+        <v>1</v>
+      </c>
+      <c r="V6" s="12">
+        <v>1</v>
+      </c>
+      <c r="W6" s="12">
+        <v>1</v>
+      </c>
+      <c r="X6" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="12">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="12">
+        <v>1</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="AI6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2764,6 +4837,102 @@
       <c r="J12">
         <f>AVERAGE(J4:J7)</f>
         <v>5.2777777777777777</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <f>B14*2</f>
+        <v>4194304</v>
+      </c>
+      <c r="D13">
+        <v>7.43</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <f>B15*2</f>
+        <v>2097152</v>
+      </c>
+      <c r="D14">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <f>B16*2</f>
+        <v>1048576</v>
+      </c>
+      <c r="D15">
+        <v>1.6120000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>524288</v>
+      </c>
+      <c r="D16">
+        <v>0.74</v>
+      </c>
+      <c r="E16">
+        <v>0.7</v>
+      </c>
+      <c r="F16">
+        <f>E16/H4</f>
+        <v>7.7777777777777777</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <f t="shared" ref="B17:B23" si="2">B16/2</f>
+        <v>262144</v>
+      </c>
+      <c r="D17">
+        <v>0.36799999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <f t="shared" si="2"/>
+        <v>131072</v>
+      </c>
+      <c r="D18">
+        <v>0.223</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <f t="shared" si="2"/>
+        <v>65536</v>
+      </c>
+      <c r="D19">
+        <v>0.128</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <f t="shared" si="2"/>
+        <v>32768</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <f t="shared" si="2"/>
+        <v>16384</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <f t="shared" si="2"/>
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <f t="shared" si="2"/>
+        <v>4096</v>
+      </c>
+      <c r="D23">
+        <v>2.1999999999999999E-2</v>
       </c>
     </row>
   </sheetData>
@@ -15990,8 +18159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16624,654 +18793,448 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI6"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AA14" sqref="AA14"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="L1" sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="32" width="5.25" customWidth="1"/>
+    <col min="1" max="12" width="4.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="2">
+        <v>-32</v>
+      </c>
+      <c r="B1" s="42">
+        <v>30</v>
+      </c>
+      <c r="C1" s="2">
+        <v>-12</v>
+      </c>
+      <c r="D1" s="2">
+        <v>-31</v>
+      </c>
+      <c r="E1" s="2">
         <v>3</v>
       </c>
-      <c r="B1" s="8">
-        <v>0</v>
-      </c>
-      <c r="C1" s="12">
-        <v>1</v>
-      </c>
-      <c r="D1" s="8">
-        <v>0</v>
-      </c>
-      <c r="E1" s="12">
-        <v>1</v>
-      </c>
-      <c r="F1" s="8">
-        <v>0</v>
-      </c>
-      <c r="G1" s="12">
-        <v>1</v>
-      </c>
-      <c r="H1" s="12">
-        <v>1</v>
-      </c>
-      <c r="I1" s="8">
-        <v>0</v>
-      </c>
-      <c r="J1" s="8">
-        <v>0</v>
-      </c>
-      <c r="K1" s="8">
-        <v>0</v>
-      </c>
-      <c r="L1" s="12">
-        <v>1</v>
-      </c>
-      <c r="M1" s="8">
-        <v>0</v>
-      </c>
-      <c r="N1" s="8">
-        <v>0</v>
-      </c>
-      <c r="O1" s="8">
-        <v>0</v>
-      </c>
-      <c r="P1" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q1" s="8">
-        <v>0</v>
-      </c>
-      <c r="R1" s="12">
-        <v>1</v>
-      </c>
-      <c r="S1" s="8">
-        <v>0</v>
-      </c>
-      <c r="T1" s="12">
-        <v>1</v>
-      </c>
-      <c r="U1" s="12">
-        <v>1</v>
-      </c>
-      <c r="V1" s="8">
-        <v>0</v>
-      </c>
-      <c r="W1" s="8">
-        <v>0</v>
-      </c>
-      <c r="X1" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y1" s="12">
-        <v>1</v>
-      </c>
-      <c r="Z1" s="12">
-        <v>1</v>
-      </c>
-      <c r="AA1" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB1" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC1" s="12">
-        <v>1</v>
-      </c>
-      <c r="AD1" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE1" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF1" s="12">
-        <v>1</v>
-      </c>
-      <c r="AH1">
-        <f t="shared" ref="AH1:AH6" si="0" xml:space="preserve"> SUM(B1:AF1)</f>
-        <v>13</v>
-      </c>
-      <c r="AI1">
-        <f t="shared" ref="AI1:AI6" si="1">AVERAGE(B1:AF1)</f>
-        <v>0.41935483870967744</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="12">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8">
-        <v>0</v>
-      </c>
-      <c r="D2" s="12">
-        <v>1</v>
-      </c>
-      <c r="E2" s="8">
-        <v>0</v>
-      </c>
-      <c r="F2" s="12">
-        <v>1</v>
-      </c>
-      <c r="G2" s="12">
-        <v>1</v>
-      </c>
-      <c r="H2" s="12">
-        <v>1</v>
-      </c>
-      <c r="I2" s="8">
-        <v>0</v>
-      </c>
-      <c r="J2" s="12">
-        <v>1</v>
-      </c>
-      <c r="K2" s="8">
-        <v>0</v>
-      </c>
-      <c r="L2" s="12">
-        <v>1</v>
-      </c>
-      <c r="M2" s="8">
-        <v>0</v>
-      </c>
-      <c r="N2" s="12">
-        <v>1</v>
-      </c>
-      <c r="O2" s="8">
-        <v>0</v>
-      </c>
-      <c r="P2" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="8">
-        <v>0</v>
-      </c>
-      <c r="R2" s="8">
-        <v>0</v>
-      </c>
-      <c r="S2" s="8">
-        <v>0</v>
-      </c>
-      <c r="T2" s="12">
-        <v>1</v>
-      </c>
-      <c r="U2" s="8">
-        <v>0</v>
-      </c>
-      <c r="V2" s="12">
-        <v>1</v>
-      </c>
-      <c r="W2" s="8">
-        <v>0</v>
-      </c>
-      <c r="X2" s="12">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="12">
-        <v>1</v>
-      </c>
-      <c r="AA2" s="12">
-        <v>1</v>
-      </c>
-      <c r="AB2" s="12">
-        <v>1</v>
-      </c>
-      <c r="AC2" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="12">
-        <v>1</v>
-      </c>
-      <c r="AE2" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="12">
-        <v>1</v>
-      </c>
-      <c r="AH2">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="AI2">
-        <f t="shared" si="1"/>
-        <v>0.54838709677419351</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="12">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12">
-        <v>1</v>
-      </c>
-      <c r="D3" s="12">
-        <v>1</v>
-      </c>
-      <c r="E3" s="8">
-        <v>0</v>
-      </c>
-      <c r="F3" s="12">
-        <v>1</v>
-      </c>
-      <c r="G3" s="8">
-        <v>0</v>
-      </c>
-      <c r="H3" s="12">
-        <v>1</v>
-      </c>
-      <c r="I3" s="8">
-        <v>0</v>
-      </c>
-      <c r="J3" s="12">
-        <v>1</v>
-      </c>
-      <c r="K3" s="8">
-        <v>0</v>
-      </c>
-      <c r="L3" s="12">
-        <v>1</v>
-      </c>
-      <c r="M3" s="8">
-        <v>0</v>
-      </c>
-      <c r="N3" s="12">
-        <v>1</v>
-      </c>
-      <c r="O3" s="8">
-        <v>0</v>
-      </c>
-      <c r="P3" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="8">
-        <v>0</v>
-      </c>
-      <c r="R3" s="12">
-        <v>1</v>
-      </c>
-      <c r="S3" s="8">
-        <v>0</v>
-      </c>
-      <c r="T3" s="12">
-        <v>1</v>
-      </c>
-      <c r="U3" s="8">
-        <v>0</v>
-      </c>
-      <c r="V3" s="12">
-        <v>1</v>
-      </c>
-      <c r="W3" s="12">
-        <v>1</v>
-      </c>
-      <c r="X3" s="12">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="12">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="12">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="12">
-        <v>1</v>
-      </c>
-      <c r="AC3" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="12">
-        <v>1</v>
-      </c>
-      <c r="AE3" s="12">
-        <v>1</v>
-      </c>
-      <c r="AF3" s="12">
-        <v>1</v>
-      </c>
-      <c r="AH3">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="AI3">
-        <f t="shared" si="1"/>
-        <v>0.64516129032258063</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="12">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12">
-        <v>1</v>
-      </c>
-      <c r="D4" s="12">
-        <v>1</v>
-      </c>
-      <c r="E4" s="12">
-        <v>1</v>
-      </c>
-      <c r="F4" s="12">
-        <v>1</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0</v>
-      </c>
-      <c r="H4" s="12">
-        <v>1</v>
-      </c>
-      <c r="I4" s="12">
-        <v>1</v>
-      </c>
-      <c r="J4" s="8">
-        <v>0</v>
-      </c>
-      <c r="K4" s="12">
-        <v>1</v>
-      </c>
-      <c r="L4" s="12">
-        <v>1</v>
-      </c>
-      <c r="M4" s="12">
-        <v>1</v>
-      </c>
-      <c r="N4" s="12">
-        <v>1</v>
-      </c>
-      <c r="O4" s="12">
-        <v>1</v>
-      </c>
-      <c r="P4" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="12">
-        <v>1</v>
-      </c>
-      <c r="R4" s="8">
-        <v>0</v>
-      </c>
-      <c r="S4" s="8">
-        <v>0</v>
-      </c>
-      <c r="T4" s="12">
-        <v>1</v>
-      </c>
-      <c r="U4" s="12">
-        <v>1</v>
-      </c>
-      <c r="V4" s="12">
-        <v>1</v>
-      </c>
-      <c r="W4" s="12">
-        <v>1</v>
-      </c>
-      <c r="X4" s="12">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="12">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="12">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="12">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="12">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="12">
-        <v>1</v>
-      </c>
-      <c r="AD4" s="12">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="12">
-        <v>1</v>
-      </c>
-      <c r="AF4" s="12">
-        <v>1</v>
-      </c>
-      <c r="AH4">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="AI4">
-        <f t="shared" si="1"/>
-        <v>0.87096774193548387</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="12">
-        <v>1</v>
-      </c>
-      <c r="C5" s="12">
-        <v>1</v>
-      </c>
-      <c r="D5" s="12">
-        <v>1</v>
-      </c>
-      <c r="E5" s="12">
-        <v>1</v>
-      </c>
-      <c r="F5" s="12">
-        <v>1</v>
-      </c>
-      <c r="G5" s="8">
-        <v>0</v>
-      </c>
-      <c r="H5" s="12">
-        <v>1</v>
-      </c>
-      <c r="I5" s="12">
-        <v>1</v>
-      </c>
-      <c r="J5" s="12">
-        <v>1</v>
-      </c>
-      <c r="K5" s="8">
-        <v>0</v>
-      </c>
-      <c r="L5" s="12">
-        <v>1</v>
-      </c>
-      <c r="M5" s="12">
-        <v>1</v>
-      </c>
-      <c r="N5" s="12">
-        <v>1</v>
-      </c>
-      <c r="O5" s="12">
-        <v>1</v>
-      </c>
-      <c r="P5" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="12">
-        <v>1</v>
-      </c>
-      <c r="R5" s="12">
-        <v>1</v>
-      </c>
-      <c r="S5" s="8">
-        <v>0</v>
-      </c>
-      <c r="T5" s="12">
-        <v>1</v>
-      </c>
-      <c r="U5" s="8">
-        <v>0</v>
-      </c>
-      <c r="V5" s="12">
-        <v>1</v>
-      </c>
-      <c r="W5" s="12">
-        <v>1</v>
-      </c>
-      <c r="X5" s="12">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="12">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="12">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="12">
-        <v>1</v>
-      </c>
-      <c r="AB5" s="12">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="12">
-        <v>1</v>
-      </c>
-      <c r="AD5" s="12">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="12">
-        <v>1</v>
-      </c>
-      <c r="AF5" s="12">
-        <v>1</v>
-      </c>
-      <c r="AH5">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="AI5">
-        <f t="shared" si="1"/>
-        <v>0.87096774193548387</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="12">
-        <v>1</v>
-      </c>
-      <c r="C6" s="12">
-        <v>1</v>
-      </c>
-      <c r="D6" s="12">
-        <v>1</v>
-      </c>
-      <c r="E6" s="12">
-        <v>1</v>
-      </c>
-      <c r="F6" s="12">
-        <v>1</v>
-      </c>
-      <c r="G6" s="12">
-        <v>1</v>
-      </c>
-      <c r="H6" s="12">
-        <v>1</v>
-      </c>
-      <c r="I6" s="12">
-        <v>1</v>
-      </c>
-      <c r="J6" s="12">
-        <v>1</v>
-      </c>
-      <c r="K6" s="12">
-        <v>1</v>
-      </c>
-      <c r="L6" s="12">
-        <v>1</v>
-      </c>
-      <c r="M6" s="12">
-        <v>1</v>
-      </c>
-      <c r="N6" s="12">
-        <v>1</v>
-      </c>
-      <c r="O6" s="12">
-        <v>1</v>
-      </c>
-      <c r="P6" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="12">
-        <v>1</v>
-      </c>
-      <c r="R6" s="12">
-        <v>1</v>
-      </c>
-      <c r="S6" s="8">
-        <v>1</v>
-      </c>
-      <c r="T6" s="12">
-        <v>1</v>
-      </c>
-      <c r="U6" s="12">
-        <v>1</v>
-      </c>
-      <c r="V6" s="12">
-        <v>1</v>
-      </c>
-      <c r="W6" s="12">
-        <v>1</v>
-      </c>
-      <c r="X6" s="12">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="12">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="12">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="12">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="12">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="12">
-        <v>1</v>
-      </c>
-      <c r="AD6" s="12">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="12">
-        <v>1</v>
-      </c>
-      <c r="AF6" s="12">
-        <v>1</v>
-      </c>
-      <c r="AH6">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="AI6">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="F1" s="42">
+        <v>-7</v>
+      </c>
+      <c r="G1" s="42">
+        <v>-29</v>
+      </c>
+      <c r="H1" s="2">
+        <v>9</v>
+      </c>
+      <c r="I1" s="2">
+        <v>-2</v>
+      </c>
+      <c r="J1" s="47">
+        <v>3</v>
+      </c>
+      <c r="K1" s="42">
+        <v>-32</v>
+      </c>
+      <c r="L1" s="2">
+        <v>-26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>-32</v>
+      </c>
+      <c r="B2" s="4">
+        <v>-32</v>
+      </c>
+      <c r="C2" s="44">
+        <v>-12</v>
+      </c>
+      <c r="D2" s="44">
+        <v>-31</v>
+      </c>
+      <c r="E2" s="4">
+        <v>3</v>
+      </c>
+      <c r="F2" s="4">
+        <v>-29</v>
+      </c>
+      <c r="G2" s="45">
+        <v>-7</v>
+      </c>
+      <c r="H2" s="1">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1">
+        <v>-2</v>
+      </c>
+      <c r="J2" s="1">
+        <v>3</v>
+      </c>
+      <c r="K2" s="1">
+        <v>30</v>
+      </c>
+      <c r="L2" s="45">
+        <v>-26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>-32</v>
+      </c>
+      <c r="B3" s="2">
+        <v>-32</v>
+      </c>
+      <c r="C3" s="2">
+        <v>-31</v>
+      </c>
+      <c r="D3" s="43">
+        <v>-12</v>
+      </c>
+      <c r="E3" s="3">
+        <v>3</v>
+      </c>
+      <c r="F3" s="43">
+        <v>-29</v>
+      </c>
+      <c r="G3" s="2">
+        <v>-26</v>
+      </c>
+      <c r="H3" s="2">
+        <v>9</v>
+      </c>
+      <c r="I3" s="2">
+        <v>-2</v>
+      </c>
+      <c r="J3" s="43">
+        <v>3</v>
+      </c>
+      <c r="K3" s="3">
+        <v>30</v>
+      </c>
+      <c r="L3" s="43">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>-32</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-32</v>
+      </c>
+      <c r="C4" s="1">
+        <v>-31</v>
+      </c>
+      <c r="D4" s="4">
+        <v>-29</v>
+      </c>
+      <c r="E4" s="45">
+        <v>3</v>
+      </c>
+      <c r="F4" s="45">
+        <v>-12</v>
+      </c>
+      <c r="G4" s="4">
+        <v>-26</v>
+      </c>
+      <c r="H4" s="45">
+        <v>9</v>
+      </c>
+      <c r="I4" s="45">
+        <v>-2</v>
+      </c>
+      <c r="J4" s="4">
+        <v>-7</v>
+      </c>
+      <c r="K4" s="45">
+        <v>30</v>
+      </c>
+      <c r="L4" s="45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>-32</v>
+      </c>
+      <c r="B5" s="4">
+        <v>-32</v>
+      </c>
+      <c r="C5" s="1">
+        <v>-31</v>
+      </c>
+      <c r="D5" s="4">
+        <v>-29</v>
+      </c>
+      <c r="E5" s="4">
+        <v>-12</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3</v>
+      </c>
+      <c r="G5" s="4">
+        <v>-26</v>
+      </c>
+      <c r="H5" s="4">
+        <v>-2</v>
+      </c>
+      <c r="I5" s="1">
+        <v>9</v>
+      </c>
+      <c r="J5" s="4">
+        <v>-7</v>
+      </c>
+      <c r="K5" s="4">
+        <v>3</v>
+      </c>
+      <c r="L5" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>-32</v>
+      </c>
+      <c r="B7" s="2">
+        <v>-32</v>
+      </c>
+      <c r="C7" s="2">
+        <v>-31</v>
+      </c>
+      <c r="D7" s="2">
+        <v>-29</v>
+      </c>
+      <c r="E7" s="2">
+        <v>-12</v>
+      </c>
+      <c r="F7" s="42">
+        <v>3</v>
+      </c>
+      <c r="G7" s="42">
+        <v>-26</v>
+      </c>
+      <c r="H7" s="2">
+        <v>-2</v>
+      </c>
+      <c r="I7" s="2">
+        <v>9</v>
+      </c>
+      <c r="J7" s="2">
+        <v>-7</v>
+      </c>
+      <c r="K7" s="2">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>-32</v>
+      </c>
+      <c r="B8" s="4">
+        <v>-32</v>
+      </c>
+      <c r="C8" s="4">
+        <v>-31</v>
+      </c>
+      <c r="D8" s="4">
+        <v>-29</v>
+      </c>
+      <c r="E8" s="4">
+        <v>-12</v>
+      </c>
+      <c r="F8" s="4">
+        <v>-26</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3</v>
+      </c>
+      <c r="H8" s="1">
+        <v>-2</v>
+      </c>
+      <c r="I8" s="45">
+        <v>9</v>
+      </c>
+      <c r="J8" s="45">
+        <v>-7</v>
+      </c>
+      <c r="K8" s="1">
+        <v>3</v>
+      </c>
+      <c r="L8" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="48">
+        <v>-32</v>
+      </c>
+      <c r="B9" s="48">
+        <v>-32</v>
+      </c>
+      <c r="C9" s="48">
+        <v>-31</v>
+      </c>
+      <c r="D9" s="3">
+        <v>-29</v>
+      </c>
+      <c r="E9" s="3">
+        <v>-12</v>
+      </c>
+      <c r="F9" s="3">
+        <v>-26</v>
+      </c>
+      <c r="G9" s="42">
+        <v>3</v>
+      </c>
+      <c r="H9" s="2">
+        <v>-2</v>
+      </c>
+      <c r="I9" s="42">
+        <v>-7</v>
+      </c>
+      <c r="J9" s="3">
+        <v>9</v>
+      </c>
+      <c r="K9" s="3">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D10" s="4">
+        <v>-29</v>
+      </c>
+      <c r="E10" s="4">
+        <v>-12</v>
+      </c>
+      <c r="F10" s="1">
+        <v>-26</v>
+      </c>
+      <c r="G10" s="4">
+        <v>-7</v>
+      </c>
+      <c r="H10" s="4">
+        <v>-2</v>
+      </c>
+      <c r="I10" s="1">
+        <v>3</v>
+      </c>
+      <c r="J10" s="44">
+        <v>9</v>
+      </c>
+      <c r="K10" s="44">
+        <v>3</v>
+      </c>
+      <c r="L10" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D11" s="4">
+        <v>-29</v>
+      </c>
+      <c r="E11" s="45">
+        <v>-12</v>
+      </c>
+      <c r="F11" s="45">
+        <v>-26</v>
+      </c>
+      <c r="G11" s="4">
+        <v>-7</v>
+      </c>
+      <c r="H11" s="1">
+        <v>-2</v>
+      </c>
+      <c r="I11" s="1">
+        <v>3</v>
+      </c>
+      <c r="J11" s="4">
+        <v>3</v>
+      </c>
+      <c r="K11" s="1">
+        <v>9</v>
+      </c>
+      <c r="L11" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D12" s="4">
+        <v>-29</v>
+      </c>
+      <c r="E12" s="1">
+        <v>-26</v>
+      </c>
+      <c r="F12" s="1">
+        <v>-12</v>
+      </c>
+      <c r="G12" s="4">
+        <v>-7</v>
+      </c>
+      <c r="H12" s="1">
+        <v>-2</v>
+      </c>
+      <c r="I12" s="1">
+        <v>3</v>
+      </c>
+      <c r="J12" s="4">
+        <v>3</v>
+      </c>
+      <c r="K12" s="1">
+        <v>9</v>
+      </c>
+      <c r="L12" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>-32</v>
+      </c>
+      <c r="B14" s="2">
+        <v>-32</v>
+      </c>
+      <c r="C14" s="2">
+        <v>-31</v>
+      </c>
+      <c r="D14" s="2">
+        <v>-29</v>
+      </c>
+      <c r="E14" s="2">
+        <v>-26</v>
+      </c>
+      <c r="F14" s="2">
+        <v>-12</v>
+      </c>
+      <c r="G14" s="2">
+        <v>-7</v>
+      </c>
+      <c r="H14" s="2">
+        <v>-2</v>
+      </c>
+      <c r="I14" s="2">
+        <v>3</v>
+      </c>
+      <c r="J14" s="2">
+        <v>3</v>
+      </c>
+      <c r="K14" s="2">
+        <v>9</v>
+      </c>
+      <c r="L14" s="2">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>